--- a/public/data/江苏省/苏州市/xlsx/苏州市2019-05-26.xlsx
+++ b/public/data/江苏省/苏州市/xlsx/苏州市2019-05-26.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,408 +398,408 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>苏州力驰建筑装饰有限公司</v>
+        <v>王斌装饰</v>
       </c>
       <c r="B2" t="str">
-        <v>18962566788</v>
+        <v>15057808655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>苏州市贵娇装饰有限公司</v>
+        <v>华烁装饰材料</v>
       </c>
       <c r="B3" t="str">
-        <v>18626265562</v>
+        <v>13862192995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>苏州五六七装饰工程有限公司</v>
+        <v>苏州市贵娇装饰有限公司</v>
       </c>
       <c r="B4" t="str">
-        <v>15036194687</v>
+        <v>18626265562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>苏州骏艾装饰工程有限公司</v>
+        <v>苏州龙雀建筑装饰工程有限公司</v>
       </c>
       <c r="B5" t="str">
-        <v>15850300889</v>
+        <v>13606257871</v>
       </c>
       <c r="C5" t="str">
-        <v>15358808119</v>
+        <v>13912717501</v>
+      </c>
+      <c r="D5" t="str">
+        <v>13913084305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>苏州十月围城装饰有限公司</v>
+        <v>苏州卓玥装饰工程有限公司</v>
       </c>
       <c r="B6" t="str">
-        <v>18912732118</v>
+        <v>18626263066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>苏州行冠装饰工程有限公司</v>
+        <v>苏州柒贰玖装饰工程有限公司</v>
       </c>
       <c r="B7" t="str">
-        <v>13962592022</v>
+        <v>13912750101</v>
+      </c>
+      <c r="C7" t="str">
+        <v>13862539022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>苏州乐尊装饰工程有限公司</v>
+        <v>苏州豪居装饰工程有限公司</v>
       </c>
       <c r="B8" t="str">
-        <v>13912749117</v>
+        <v>13913740849</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>苏州阶梯装饰有限公司</v>
+        <v>苏州五六七装饰工程有限公司</v>
       </c>
       <c r="B9" t="str">
-        <v>13701557082</v>
+        <v>15036194687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>苏州柒贰玖装饰工程有限公司</v>
+        <v>吴江市点睛建筑装饰有限公司七都分公司</v>
       </c>
       <c r="B10" t="str">
-        <v>13912750101</v>
-      </c>
-      <c r="C10" t="str">
-        <v>13862539022</v>
+        <v>17714097909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>苏州卓玥装饰工程有限公司</v>
+        <v>苏州肯奈设计装饰工程有限公司</v>
       </c>
       <c r="B11" t="str">
-        <v>18626263066</v>
+        <v>13621566290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>苏州港饰建筑装饰有限公司</v>
+        <v>苏州力驰建筑装饰有限公司</v>
       </c>
       <c r="B12" t="str">
-        <v>13962571576</v>
-      </c>
-      <c r="C12" t="str">
-        <v>13621575395</v>
+        <v>18962566788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>苏州宝树装饰有限公司</v>
+        <v>苏州这样装饰设计工程有限公司</v>
       </c>
       <c r="B13" t="str">
-        <v>15501370088</v>
+        <v>15262394998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>苏州这样装饰设计工程有限公司</v>
+        <v>苏州宝树装饰有限公司</v>
       </c>
       <c r="B14" t="str">
-        <v>15262394998</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>苏州豪居装饰工程有限公司</v>
+        <v>苏州港饰建筑装饰有限公司</v>
       </c>
       <c r="B15" t="str">
-        <v>13913740849</v>
+        <v>13962571576</v>
+      </c>
+      <c r="C15" t="str">
+        <v>13621575395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>吴江市点睛建筑装饰有限公司七都分公司</v>
+        <v>苏州骏艾装饰工程有限公司</v>
       </c>
       <c r="B16" t="str">
-        <v>17714097909</v>
+        <v>15850300889</v>
+      </c>
+      <c r="C16" t="str">
+        <v>15358808119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>苏州多项装饰工程有限公司</v>
+        <v>苏州阶梯装饰有限公司</v>
       </c>
       <c r="B17" t="str">
-        <v>13913730391</v>
+        <v>13701557082</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>苏州浩骐装饰有限公司</v>
+        <v>苏州十月围城装饰有限公司</v>
       </c>
       <c r="B18" t="str">
-        <v>18662264017</v>
+        <v>18912732118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>苏州才汇建筑装饰工程有限公司</v>
+        <v>苏州乐尊装饰工程有限公司</v>
       </c>
       <c r="B19" t="str">
-        <v>15262398268</v>
+        <v>13912749117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>苏州正俣昊建筑装饰工程有限公司</v>
+        <v>苏州行冠装饰工程有限公司</v>
       </c>
       <c r="B20" t="str">
-        <v>13913057702</v>
+        <v>13962592022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>苏州近铁装饰实业有限公司</v>
+        <v>苏州才汇建筑装饰工程有限公司</v>
       </c>
       <c r="B21" t="str">
-        <v>13764300215</v>
+        <v>15262398268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>苏州龙雀建筑装饰工程有限公司</v>
+        <v>苏州凡烨装饰工程有限公司</v>
       </c>
       <c r="B22" t="str">
-        <v>13606257871</v>
-      </c>
-      <c r="C22" t="str">
-        <v>13912717501</v>
-      </c>
-      <c r="D22" t="str">
-        <v>13913084305</v>
+        <v>13776163576</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>苏州丁丁鱼建筑装饰工程有限公司</v>
+        <v>苏州可人装饰工程有限公司</v>
       </c>
       <c r="B23" t="str">
-        <v>15806135355</v>
+        <v>18012709053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>苏州凡烨装饰工程有限公司</v>
+        <v>苏州艺古轩设计装饰有限公司</v>
       </c>
       <c r="B24" t="str">
-        <v>13776163576</v>
+        <v>18662262538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>苏州肯奈设计装饰工程有限公司</v>
+        <v>苏州浩骐装饰有限公司</v>
       </c>
       <c r="B25" t="str">
-        <v>13621566290</v>
+        <v>18662264017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>苏州可人装饰工程有限公司</v>
+        <v>苏州多项装饰工程有限公司</v>
       </c>
       <c r="B26" t="str">
-        <v>18012709053</v>
+        <v>13913730391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>苏州艺古轩设计装饰有限公司</v>
+        <v>苏州正俣昊建筑装饰工程有限公司</v>
       </c>
       <c r="B27" t="str">
-        <v>18662262538</v>
+        <v>13913057702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>苏州允扬装饰工程有限公司</v>
+        <v>苏州近铁装饰实业有限公司</v>
       </c>
       <c r="B28" t="str">
-        <v>15151455775</v>
+        <v>13764300215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>苏州艾仑美装饰装潢有限公司</v>
+        <v>苏州丁丁鱼建筑装饰工程有限公司</v>
       </c>
       <c r="B29" t="str">
-        <v>13862856468</v>
+        <v>15806135355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>苏州磊宇装饰工程有限公司</v>
+        <v>苏州允扬装饰工程有限公司</v>
       </c>
       <c r="B30" t="str">
-        <v>13771662223</v>
-      </c>
-      <c r="C30" t="str">
-        <v>18018106006</v>
+        <v>15151455775</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>苏州路克装饰工程有限公司</v>
+        <v>苏州艾仑美装饰装潢有限公司</v>
       </c>
       <c r="B31" t="str">
-        <v>18896792865</v>
+        <v>13862856468</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>苏州梦卉居装饰设计有限公司</v>
+        <v>苏州黎花美装饰工程有限公司</v>
       </c>
       <c r="B32" t="str">
-        <v>18262188423</v>
+        <v>13913742901</v>
+      </c>
+      <c r="C32" t="str">
+        <v>13913742601</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>苏州畅奇装饰有限公司</v>
+        <v>苏州嘉盈信装饰工程有限公司</v>
       </c>
       <c r="B33" t="str">
-        <v>13812741410</v>
+        <v>15501370088</v>
+      </c>
+      <c r="C33" t="str">
+        <v>15503170088</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>苏州市文豪装饰工程有限公司</v>
+        <v>苏州伟祥建筑装饰工程有限公司</v>
       </c>
       <c r="B34" t="str">
-        <v>18605150688</v>
-      </c>
-      <c r="C34" t="str">
-        <v>17712606743</v>
+        <v>13862505825</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>苏州市高之雅装饰工程有限公司</v>
+        <v>苏州畅奇装饰有限公司</v>
       </c>
       <c r="B35" t="str">
-        <v>15062529275</v>
-      </c>
-      <c r="C35" t="str">
-        <v>13092669383</v>
+        <v>13812741410</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>苏州友家谊建筑装饰工程有限公司</v>
+        <v>苏州恒飞建筑装饰工程有限公司</v>
       </c>
       <c r="B36" t="str">
-        <v>15501370088</v>
+        <v>15162392880</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>苏州市鑫新装饰工程有限公司</v>
+        <v>苏州鸿湖建筑装饰工程有限公司</v>
       </c>
       <c r="B37" t="str">
-        <v>13646259729</v>
+        <v>18362619321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>苏州恒飞建筑装饰工程有限公司</v>
+        <v>苏州磊宇装饰工程有限公司</v>
       </c>
       <c r="B38" t="str">
-        <v>15162392880</v>
+        <v>13771662223</v>
+      </c>
+      <c r="C38" t="str">
+        <v>18018106006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>苏州黎花美装饰工程有限公司</v>
+        <v>苏州市文豪装饰工程有限公司</v>
       </c>
       <c r="B39" t="str">
-        <v>13913742901</v>
+        <v>18605150688</v>
       </c>
       <c r="C39" t="str">
-        <v>13913742601</v>
+        <v>17712606743</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>苏州市航浩建筑配套装饰工程有限公司</v>
+        <v>苏州市高之雅装饰工程有限公司</v>
       </c>
       <c r="B40" t="str">
-        <v>13862512921</v>
+        <v>15062529275</v>
+      </c>
+      <c r="C40" t="str">
+        <v>13092669383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>苏州嘉盈信装饰工程有限公司</v>
+        <v>苏州市航浩建筑配套装饰工程有限公司</v>
       </c>
       <c r="B41" t="str">
-        <v>15501370088</v>
-      </c>
-      <c r="C41" t="str">
-        <v>15503170088</v>
+        <v>13862512921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>苏州伟祥建筑装饰工程有限公司</v>
+        <v>苏州市鑫新装饰工程有限公司</v>
       </c>
       <c r="B42" t="str">
-        <v>13862505825</v>
+        <v>13646259729</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>苏州蜀祥幕墙装饰有限公司</v>
+        <v>意点（苏州）建筑装饰工程有限公司</v>
       </c>
       <c r="B43" t="str">
-        <v>15501370088</v>
+        <v>15162390394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>苏州创银装饰工程有限公司</v>
+        <v>苏州欧力达装饰工程有限公司</v>
       </c>
       <c r="B44" t="str">
-        <v>15851678987</v>
+        <v>13912709508</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>苏州欧力达装饰工程有限公司</v>
+        <v>苏州兮方建筑装饰有限公司</v>
       </c>
       <c r="B45" t="str">
-        <v>13912709508</v>
+        <v>13023222333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>苏州以琳装饰工程有限公司</v>
+        <v>苏州红俊春成装饰工程有限公司</v>
       </c>
       <c r="B46" t="str">
-        <v>18913091448</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>意点（苏州）建筑装饰工程有限公司</v>
+        <v>苏州品皇装饰工程有限公司</v>
       </c>
       <c r="B47" t="str">
-        <v>15162390394</v>
+        <v>13771676226</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>苏州品皇装饰工程有限公司</v>
+        <v>苏州如华装饰工程有限公司</v>
       </c>
       <c r="B48" t="str">
-        <v>13771676226</v>
+        <v>15962280777</v>
       </c>
     </row>
     <row r="49">
@@ -812,361 +812,364 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>苏州如华装饰工程有限公司</v>
+        <v>苏州海志润幕墙装饰有限公司</v>
       </c>
       <c r="B50" t="str">
-        <v>15962280777</v>
+        <v>15503170088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>苏州鸿湖建筑装饰工程有限公司</v>
+        <v>苏州诚畅装饰工程有限公司</v>
       </c>
       <c r="B51" t="str">
-        <v>18362619321</v>
+        <v>18256087205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>苏州红俊春成装饰工程有限公司</v>
+        <v>苏州忆居装饰有限公司</v>
       </c>
       <c r="B52" t="str">
-        <v>15501370088</v>
+        <v>15250464666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>苏州海志润幕墙装饰有限公司</v>
+        <v>苏州蜀祥幕墙装饰有限公司</v>
       </c>
       <c r="B53" t="str">
-        <v>15503170088</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>苏州云兴博装饰工程有限公司</v>
+        <v>苏州梦卉居装饰设计有限公司</v>
       </c>
       <c r="B54" t="str">
-        <v>15501370088</v>
+        <v>18262188423</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>苏州忆居装饰有限公司</v>
+        <v>苏州路克装饰工程有限公司</v>
       </c>
       <c r="B55" t="str">
-        <v>15250464666</v>
+        <v>18896792865</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>苏州兮方建筑装饰有限公司</v>
+        <v>苏州创银装饰工程有限公司</v>
       </c>
       <c r="B56" t="str">
-        <v>13023222333</v>
+        <v>15851678987</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>苏州诚畅装饰工程有限公司</v>
+        <v>苏州云兴博装饰工程有限公司</v>
       </c>
       <c r="B57" t="str">
-        <v>18256087205</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>苏州协信晶建筑装饰工程有限公司</v>
+        <v>苏州友家谊建筑装饰工程有限公司</v>
       </c>
       <c r="B58" t="str">
-        <v>13506256153</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>苏州丛一楼装饰有限公司</v>
+        <v>苏州以琳装饰工程有限公司</v>
       </c>
       <c r="B59" t="str">
-        <v>15371839902</v>
+        <v>18913091448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>苏州耀扬建筑装饰工程有限公司</v>
+        <v>苏州菱复装饰工程有限公司</v>
       </c>
       <c r="B60" t="str">
-        <v>13775001812</v>
+        <v>13162263330</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>苏州登发装饰工程有限公司</v>
+        <v>苏州贵宾装饰工程有限公司</v>
       </c>
       <c r="B61" t="str">
-        <v>13862505517</v>
-      </c>
-      <c r="C61" t="str">
-        <v>15995500958</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>苏州茂裕建筑装饰工程有限公司</v>
+        <v>苏州峯晟装饰有限公司</v>
       </c>
       <c r="B62" t="str">
-        <v>18762904952</v>
+        <v>15962566311</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>苏州阔展装饰工程有限公司</v>
+        <v>苏州叁贰壹建筑装饰工程有限公司</v>
       </c>
       <c r="B63" t="str">
-        <v>13862521733</v>
+        <v>18550160567</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>苏州思宇装饰有限公司</v>
+        <v>苏州强民装饰工程有限公司</v>
       </c>
       <c r="B64" t="str">
-        <v>18912738366</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>苏州昇创装饰工程有限公司</v>
+        <v>苏州青鸟装饰设计有限公司</v>
       </c>
       <c r="B65" t="str">
-        <v>13328012836</v>
-      </c>
-      <c r="C65" t="str">
-        <v>13328042836</v>
-      </c>
-      <c r="D65" t="str">
-        <v>18601456521</v>
+        <v>13801559161</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>苏州升新建筑装饰有限公司</v>
+        <v>苏州本凡建筑装饰工程有限公司</v>
       </c>
       <c r="B66" t="str">
-        <v>13382169855</v>
+        <v>18762431319</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>苏州千润装饰有限公司</v>
+        <v>苏州思宇装饰有限公司</v>
       </c>
       <c r="B67" t="str">
-        <v>13862536332</v>
+        <v>18912738366</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>苏州臻林建筑装饰工程有限公司</v>
+        <v>苏州阔展装饰工程有限公司</v>
       </c>
       <c r="B68" t="str">
-        <v>13912728500</v>
+        <v>13862521733</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>苏州心念家居装饰馆</v>
+        <v>苏州诚鹏林装饰工程有限公司</v>
       </c>
       <c r="B69" t="str">
-        <v>13912713789</v>
+        <v>15501370088</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>苏州美夸装饰有限公司</v>
+        <v>苏州市熊氏装饰工程有限公司</v>
       </c>
       <c r="B70" t="str">
-        <v>18994344683</v>
+        <v>13151183597</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>苏州诚鹏林装饰工程有限公司</v>
+        <v>苏州艾维诺装饰工程有限公司</v>
       </c>
       <c r="B71" t="str">
-        <v>15501370088</v>
+        <v>13182461286</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>苏州青鸟装饰设计有限公司</v>
+        <v>德铝永业装饰（苏州）有限公司</v>
       </c>
       <c r="B72" t="str">
-        <v>13801559161</v>
+        <v>13801554983</v>
+      </c>
+      <c r="C72" t="str">
+        <v>18362520858</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>苏州市熊氏装饰工程有限公司</v>
+        <v>苏州大锐兵装饰工程有限公司</v>
       </c>
       <c r="B73" t="str">
-        <v>13151183597</v>
+        <v>13776038513</v>
+      </c>
+      <c r="C73" t="str">
+        <v>15501370088</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>德铝永业装饰（苏州）有限公司</v>
+        <v>苏州心念家居装饰馆</v>
       </c>
       <c r="B74" t="str">
-        <v>13801554983</v>
-      </c>
-      <c r="C74" t="str">
-        <v>18362520858</v>
+        <v>13912713789</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>苏州贵宾装饰工程有限公司</v>
+        <v>苏州昊磊装饰工程有限公司</v>
       </c>
       <c r="B75" t="str">
-        <v>15501370088</v>
+        <v>13962574265</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>苏州大锐兵装饰工程有限公司</v>
+        <v>苏州市朝耀装饰有限公司</v>
       </c>
       <c r="B76" t="str">
-        <v>13776038513</v>
-      </c>
-      <c r="C76" t="str">
-        <v>15501370088</v>
+        <v>13801558723</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>苏州强民装饰工程有限公司</v>
+        <v>苏州丛一楼装饰有限公司</v>
       </c>
       <c r="B77" t="str">
-        <v>15501370088</v>
+        <v>15371839902</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>苏州叁贰壹建筑装饰工程有限公司</v>
+        <v>苏州升新建筑装饰有限公司</v>
       </c>
       <c r="B78" t="str">
-        <v>18550160567</v>
+        <v>13382169855</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>苏州峯晟装饰有限公司</v>
+        <v>苏州臻林建筑装饰工程有限公司</v>
       </c>
       <c r="B79" t="str">
-        <v>15962566311</v>
+        <v>13912728500</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>苏州艾维诺装饰工程有限公司</v>
+        <v>苏州耀扬建筑装饰工程有限公司</v>
       </c>
       <c r="B80" t="str">
-        <v>13182461286</v>
+        <v>13775001812</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>苏州昊磊装饰工程有限公司</v>
+        <v>苏州登发装饰工程有限公司</v>
       </c>
       <c r="B81" t="str">
-        <v>13962574265</v>
+        <v>13862505517</v>
+      </c>
+      <c r="C81" t="str">
+        <v>15995500958</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>苏州市朝耀装饰有限公司</v>
+        <v>苏州美夸装饰有限公司</v>
       </c>
       <c r="B82" t="str">
-        <v>13801558723</v>
+        <v>18994344683</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>苏州菱复装饰工程有限公司</v>
+        <v>苏州信扬装饰工程有限公司</v>
       </c>
       <c r="B83" t="str">
-        <v>13162263330</v>
+        <v>13328015913</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>苏州本凡建筑装饰工程有限公司</v>
+        <v>苏州协信晶建筑装饰工程有限公司</v>
       </c>
       <c r="B84" t="str">
-        <v>18762431319</v>
+        <v>13506256153</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>苏州信扬装饰工程有限公司</v>
+        <v>苏州千润装饰有限公司</v>
       </c>
       <c r="B85" t="str">
-        <v>13328015913</v>
+        <v>13862536332</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>苏州财泰装饰工程有限公司</v>
+        <v>苏州昇创装饰工程有限公司</v>
       </c>
       <c r="B86" t="str">
-        <v>13906257707</v>
+        <v>13328012836</v>
+      </c>
+      <c r="C86" t="str">
+        <v>13328042836</v>
+      </c>
+      <c r="D86" t="str">
+        <v>18601456521</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>苏州爱浩建筑装饰工程有限公司</v>
+        <v>苏州茂裕建筑装饰工程有限公司</v>
       </c>
       <c r="B87" t="str">
-        <v>13812736990</v>
+        <v>18762904952</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>苏州阿尔科尔装饰装修有限公司</v>
+        <v>苏州格美电梯装饰有限公司</v>
       </c>
       <c r="B88" t="str">
-        <v>17315851169</v>
+        <v>15268229799</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>苏州美适康装饰工程有限公司</v>
+        <v>苏州财泰装饰工程有限公司</v>
       </c>
       <c r="B89" t="str">
-        <v>15050373678</v>
+        <v>13906257707</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>苏州迎宏居建筑装饰有限公司</v>
+        <v>苏州蓝眼睛装修有限公司</v>
       </c>
       <c r="B90" t="str">
-        <v>18001551360</v>
+        <v>13862527787</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>苏州格美电梯装饰有限公司</v>
+        <v>苏州阿尔科尔装饰装修有限公司</v>
       </c>
       <c r="B91" t="str">
-        <v>15268229799</v>
+        <v>17315851169</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>苏州蓝眼睛装修有限公司</v>
+        <v>苏州欣可昌装饰装修有限公司</v>
       </c>
       <c r="B92" t="str">
-        <v>13862527787</v>
+        <v>13328012836</v>
+      </c>
+      <c r="C92" t="str">
+        <v>13621572403</v>
       </c>
     </row>
     <row r="93">
@@ -1179,69 +1182,66 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>苏州璟图装饰有限公司</v>
+        <v>苏州和新装修有限公司</v>
       </c>
       <c r="B94" t="str">
-        <v>18913053755</v>
+        <v>13353693280</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>苏州鸿宝鑫装饰工程有限公司</v>
+        <v>苏州爱浩建筑装饰工程有限公司</v>
       </c>
       <c r="B95" t="str">
-        <v>13862500178</v>
+        <v>13812736990</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>苏州云朵装修工程有限公司</v>
+        <v>苏州美适康装饰工程有限公司</v>
       </c>
       <c r="B96" t="str">
-        <v>15962559551</v>
+        <v>15050373678</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>苏州和新装修有限公司</v>
+        <v>苏州迎宏居建筑装饰有限公司</v>
       </c>
       <c r="B97" t="str">
-        <v>13353693280</v>
+        <v>18001551360</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>苏州欣可昌装饰装修有限公司</v>
+        <v>苏州鸿宝鑫装饰工程有限公司</v>
       </c>
       <c r="B98" t="str">
-        <v>13328012836</v>
-      </c>
-      <c r="C98" t="str">
-        <v>13621572403</v>
+        <v>13862500178</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>苏州文仁装饰装修有限公司</v>
+        <v>苏州云朵装修工程有限公司</v>
       </c>
       <c r="B99" t="str">
-        <v>13328012836</v>
+        <v>15962559551</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>GF非舍空间设计事务所</v>
+        <v>苏州文仁装饰装修有限公司</v>
       </c>
       <c r="B100" t="str">
-        <v>18013705598</v>
+        <v>13328012836</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>唐鑫装饰</v>
+        <v>苏州璟图装饰有限公司</v>
       </c>
       <c r="B101" t="str">
-        <v>13814566956</v>
+        <v>18913053755</v>
       </c>
     </row>
     <row r="102">
@@ -1278,45 +1278,42 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>万佳装潢</v>
+        <v>唐鑫装饰</v>
       </c>
       <c r="B106" t="str">
-        <v>13776164006</v>
+        <v>13814566956</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>月林装饰</v>
+        <v>GF非舍空间设计事务所</v>
       </c>
       <c r="B107" t="str">
-        <v>13358010979</v>
+        <v>18013705598</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>香港唐宋国际装饰集团</v>
+        <v>月林装饰</v>
       </c>
       <c r="B108" t="str">
-        <v>18550166833</v>
+        <v>13358010979</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>昇鸿装饰</v>
+        <v>万佳装潢</v>
       </c>
       <c r="B109" t="str">
-        <v>15995478726</v>
-      </c>
-      <c r="C109" t="str">
-        <v>13962521609</v>
+        <v>13776164006</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>德雅万家装饰</v>
+        <v>苏州太汇景装饰工程有限公司</v>
       </c>
       <c r="B110" t="str">
-        <v>18862521699</v>
+        <v>18550472088</v>
       </c>
     </row>
     <row r="111">
@@ -1329,428 +1326,431 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>武匠装饰·设计</v>
+        <v>交换空间装饰(吴江公司)</v>
       </c>
       <c r="B112" t="str">
-        <v>15951560501</v>
+        <v>18625100212</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>链屋装饰</v>
+        <v>九尾狐设计工作室</v>
       </c>
       <c r="B113" t="str">
-        <v>13776049844</v>
+        <v>15190588752</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>苏州腾诺建筑装饰工程有限公司</v>
+        <v>翔睿装饰设计工作室</v>
       </c>
       <c r="B114" t="str">
-        <v>15962563823</v>
+        <v>18962567077</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>苏州吉强建筑装饰材料有限公司</v>
+        <v>香港唐宋国际装饰集团</v>
       </c>
       <c r="B115" t="str">
-        <v>18516666956</v>
+        <v>18550166833</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>交换空间装饰(吴江公司)</v>
+        <v>链屋装饰</v>
       </c>
       <c r="B116" t="str">
-        <v>18625100212</v>
+        <v>13776049844</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>翔睿装饰设计工作室</v>
+        <v>武匠装饰·设计</v>
       </c>
       <c r="B117" t="str">
-        <v>18962567077</v>
+        <v>15951560501</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>九尾狐设计工作室</v>
+        <v>德雅万家装饰</v>
       </c>
       <c r="B118" t="str">
-        <v>15190588752</v>
+        <v>18862521699</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>果立达高品质家装城南公司</v>
+        <v>苏州腾诺建筑装饰工程有限公司</v>
       </c>
       <c r="B119" t="str">
-        <v>18550088992</v>
+        <v>15962563823</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>苏州太汇景装饰工程有限公司</v>
+        <v>果立达高品质家装城南公司</v>
       </c>
       <c r="B120" t="str">
-        <v>18550472088</v>
+        <v>18550088992</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>诚信装潢工程部</v>
+        <v>昇鸿装饰</v>
       </c>
       <c r="B121" t="str">
-        <v>13962556455</v>
+        <v>15995478726</v>
+      </c>
+      <c r="C121" t="str">
+        <v>13962521609</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>上海集才建筑装饰工程有限公司</v>
+        <v>苏州吉强建筑装饰材料有限公司</v>
       </c>
       <c r="B122" t="str">
-        <v>18962652128</v>
+        <v>18516666956</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>鸿枫装潢</v>
+        <v>小晏装潢</v>
       </c>
       <c r="B123" t="str">
-        <v>13912768039</v>
+        <v>13913082369</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>金龙装潢(莘塔大街)</v>
+        <v>金海马装饰</v>
       </c>
       <c r="B124" t="str">
-        <v>13962535746</v>
+        <v>13771677622</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>上海今晶装潢设计有限公司(汾湖分店)</v>
+        <v>凌珍净化工程设计</v>
       </c>
       <c r="B125" t="str">
-        <v>13375169179</v>
+        <v>13862502001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>创新装饰</v>
+        <v>繁盛装潢部</v>
       </c>
       <c r="B126" t="str">
-        <v>15190576527</v>
+        <v>13732654073</v>
       </c>
       <c r="C126" t="str">
-        <v>13771676140</v>
+        <v>13291166628</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>小姜装潢工程部</v>
+        <v>才源装潢</v>
       </c>
       <c r="B127" t="str">
-        <v>13862546939</v>
+        <v>15062558910</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>小晏装潢</v>
+        <v>上海银桥石膏装饰</v>
       </c>
       <c r="B128" t="str">
-        <v>13913082369</v>
+        <v>15895578099</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>上海银桥石膏装饰</v>
+        <v>上海集才建筑装饰工程有限公司</v>
       </c>
       <c r="B129" t="str">
-        <v>15895578099</v>
+        <v>18962652128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>居绿装饰(仲英大道)</v>
+        <v>苏州鑫艺轩装饰设计工程有限公司</v>
       </c>
       <c r="B130" t="str">
-        <v>13451688451</v>
+        <v>18912738989</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>新世纪现代家庭装潢</v>
+        <v>上海今晶装潢设计有限公司(汾湖分店)</v>
       </c>
       <c r="B131" t="str">
-        <v>13862194359</v>
+        <v>13375169179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>金盛装潢</v>
+        <v>新艺装饰公司</v>
       </c>
       <c r="B132" t="str">
-        <v>13140863665</v>
-      </c>
-      <c r="C132" t="str">
-        <v>18013742979</v>
+        <v>13776139052</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>金海马装饰</v>
+        <v>小姜装潢工程部</v>
       </c>
       <c r="B133" t="str">
-        <v>13771677622</v>
+        <v>13862546939</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>根华装潢</v>
+        <v>新世纪现代家庭装潢</v>
       </c>
       <c r="B134" t="str">
-        <v>13812738722</v>
-      </c>
-      <c r="C134" t="str">
-        <v>13812736328</v>
+        <v>13862194359</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>小徐装潢</v>
+        <v>居绿装饰(仲英大道)</v>
       </c>
       <c r="B135" t="str">
-        <v>13451713870</v>
+        <v>13451688451</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>大洋装潢</v>
+        <v>创新装饰</v>
       </c>
       <c r="B136" t="str">
-        <v>18013065298</v>
+        <v>15190576527</v>
+      </c>
+      <c r="C136" t="str">
+        <v>13771676140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>新艺装饰公司</v>
+        <v>鸿枫装潢</v>
       </c>
       <c r="B137" t="str">
-        <v>13776139052</v>
+        <v>13912768039</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>凌珍净化工程设计</v>
+        <v>金盛装潢</v>
       </c>
       <c r="B138" t="str">
-        <v>13862502001</v>
+        <v>13140863665</v>
+      </c>
+      <c r="C138" t="str">
+        <v>18013742979</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>苏州市九瀛建筑装饰工程有限公司</v>
+        <v>根华装潢</v>
       </c>
       <c r="B139" t="str">
-        <v>18862501029</v>
+        <v>13812738722</v>
+      </c>
+      <c r="C139" t="str">
+        <v>13812736328</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>繁盛装潢部</v>
+        <v>大洋装潢</v>
       </c>
       <c r="B140" t="str">
-        <v>13732654073</v>
-      </c>
-      <c r="C140" t="str">
-        <v>13291166628</v>
+        <v>18013065298</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>才源装潢</v>
+        <v>苏州市九瀛建筑装饰工程有限公司</v>
       </c>
       <c r="B141" t="str">
-        <v>15062558910</v>
+        <v>18862501029</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>苏州鑫艺轩装饰设计工程有限公司</v>
+        <v>金龙装潢(莘塔大街)</v>
       </c>
       <c r="B142" t="str">
-        <v>18912738989</v>
+        <v>13962535746</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>众信装潢</v>
+        <v>小徐装潢</v>
       </c>
       <c r="B143" t="str">
-        <v>13771653649</v>
+        <v>13451713870</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>苏州名扬装饰</v>
+        <v>诚信装潢工程部</v>
       </c>
       <c r="B144" t="str">
-        <v>13771687501</v>
+        <v>13962556455</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>银良装饰</v>
+        <v>BLUE原创设计</v>
       </c>
       <c r="B145" t="str">
-        <v>13801557560</v>
+        <v>15806255222</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>韵辰装饰设计</v>
+        <v>三维装饰</v>
       </c>
       <c r="B146" t="str">
-        <v>15851688093</v>
+        <v>13906258172</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>杰豪装饰</v>
+        <v>奇海石膏装饰</v>
       </c>
       <c r="B147" t="str">
-        <v>13962552280</v>
+        <v>13732638225</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>新概念装潢设计</v>
+        <v>韵辰装饰设计</v>
       </c>
       <c r="B148" t="str">
-        <v>15250561832</v>
+        <v>15851688093</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>安鼎丰装饰</v>
+        <v>宫爵装饰</v>
       </c>
       <c r="B149" t="str">
-        <v>18550181189</v>
+        <v>15250920515</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>业询装饰</v>
+        <v>安鼎丰装饰</v>
       </c>
       <c r="B150" t="str">
-        <v>18115689125</v>
+        <v>18550181189</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>吴江市方雨装潢部</v>
+        <v>齐家典尚(吴江站)</v>
       </c>
       <c r="B151" t="str">
-        <v>18362501878</v>
-      </c>
-      <c r="C151" t="str">
-        <v>18362510334</v>
+        <v>18852405130</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>宫爵装饰</v>
+        <v>苏州名扬装饰</v>
       </c>
       <c r="B152" t="str">
-        <v>15250920515</v>
+        <v>13771687501</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>恒隆装潢部</v>
+        <v>吴江市方雨装潢部</v>
       </c>
       <c r="B153" t="str">
-        <v>13912763208</v>
+        <v>18362501878</v>
+      </c>
+      <c r="C153" t="str">
+        <v>18362510334</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>富民装潢店</v>
+        <v>唯品装饰(东太湖大道)</v>
       </c>
       <c r="B154" t="str">
-        <v>13913703283</v>
+        <v>15151711067</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>念佳装饰</v>
+        <v>苏州环塘装饰工程有限公司</v>
       </c>
       <c r="B155" t="str">
-        <v>18550797888</v>
+        <v>18862230770</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>苏州环塘装饰工程有限公司</v>
+        <v>杰豪装饰</v>
       </c>
       <c r="B156" t="str">
-        <v>18862230770</v>
+        <v>13962552280</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>奇海石膏装饰</v>
+        <v>二成装潢</v>
       </c>
       <c r="B157" t="str">
-        <v>13732638225</v>
+        <v>13052877248</v>
+      </c>
+      <c r="C157" t="str">
+        <v>13052877298</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>齐家典尚(吴江站)</v>
+        <v>新概念装潢设计</v>
       </c>
       <c r="B158" t="str">
-        <v>18852405130</v>
+        <v>15250561832</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>唯品装饰(东太湖大道)</v>
+        <v>银良装饰</v>
       </c>
       <c r="B159" t="str">
-        <v>15151711067</v>
+        <v>13801557560</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>BLUE原创设计</v>
+        <v>恒隆装潢部</v>
       </c>
       <c r="B160" t="str">
-        <v>15806255222</v>
+        <v>13912763208</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>三维装饰</v>
+        <v>业询装饰</v>
       </c>
       <c r="B161" t="str">
-        <v>13906258172</v>
+        <v>18115689125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>二成装潢</v>
+        <v>众信装潢</v>
       </c>
       <c r="B162" t="str">
-        <v>13052877248</v>
-      </c>
-      <c r="C162" t="str">
-        <v>13052877298</v>
+        <v>13771653649</v>
       </c>
     </row>
     <row r="163">
@@ -1763,53 +1763,53 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>大木设计(吴江店)</v>
+        <v>念佳装饰</v>
       </c>
       <c r="B164" t="str">
-        <v>18551580527</v>
+        <v>18550797888</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>吴江熙和装饰工程有限公司</v>
+        <v>富民装潢店</v>
       </c>
       <c r="B165" t="str">
-        <v>13901551705</v>
+        <v>13913703283</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>苏州新阳光建筑装饰有限公司</v>
+        <v>华宁装饰</v>
       </c>
       <c r="B166" t="str">
-        <v>18913066008</v>
-      </c>
-      <c r="C166" t="str">
-        <v>13328013998</v>
+        <v>18902581856</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>中运装饰</v>
+        <v>中冠装饰(永康路)</v>
       </c>
       <c r="B167" t="str">
-        <v>13151166071</v>
+        <v>18306135965</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>广州美星装饰(仲英大道)</v>
+        <v>大木设计(吴江店)</v>
       </c>
       <c r="B168" t="str">
-        <v>13584408929</v>
+        <v>18551580527</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>苏州佐昇装饰</v>
+        <v>坚美装潢</v>
       </c>
       <c r="B169" t="str">
-        <v>17016646388</v>
+        <v>13912760486</v>
+      </c>
+      <c r="C169" t="str">
+        <v>13862547756</v>
       </c>
     </row>
     <row r="170">
@@ -1822,10 +1822,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>华宁装饰</v>
+        <v>高师傅装饰</v>
       </c>
       <c r="B171" t="str">
-        <v>18902581856</v>
+        <v>15851590191</v>
       </c>
     </row>
     <row r="172">
@@ -1846,104 +1846,104 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>中冠装饰(永康路)</v>
+        <v>君正装饰工程</v>
       </c>
       <c r="B174" t="str">
-        <v>18306135965</v>
+        <v>13952419296</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>高师傅装饰</v>
+        <v>吴江熙和装饰工程有限公司</v>
       </c>
       <c r="B175" t="str">
-        <v>15851590191</v>
+        <v>13901551705</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>君正装饰工程</v>
+        <v>郡轩装饰</v>
       </c>
       <c r="B176" t="str">
-        <v>13952419296</v>
+        <v>13013863773</v>
+      </c>
+      <c r="C176" t="str">
+        <v>13013764780</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>东意盛装饰</v>
+        <v>中运装饰</v>
       </c>
       <c r="B177" t="str">
-        <v>18912760885</v>
+        <v>13151166071</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>坚美装潢</v>
+        <v>老吴装饰</v>
       </c>
       <c r="B178" t="str">
-        <v>13912760486</v>
-      </c>
-      <c r="C178" t="str">
-        <v>13862547756</v>
+        <v>13812715448</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>老吴装饰</v>
+        <v>广州美星装饰(仲英大道)</v>
       </c>
       <c r="B179" t="str">
-        <v>13812715448</v>
+        <v>13584408929</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>郡轩装饰</v>
+        <v>苏州佐昇装饰</v>
       </c>
       <c r="B180" t="str">
-        <v>13013863773</v>
-      </c>
-      <c r="C180" t="str">
-        <v>13013764780</v>
+        <v>17016646388</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>凯文设计装饰(仲英大道)</v>
+        <v>苏州新阳光建筑装饰有限公司</v>
       </c>
       <c r="B181" t="str">
-        <v>18913717831</v>
+        <v>18913066008</v>
+      </c>
+      <c r="C181" t="str">
+        <v>13328013998</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>捷鸿印刷厂(胶印-江宁路分部)</v>
+        <v>凯文设计装饰(仲英大道)</v>
       </c>
       <c r="B182" t="str">
-        <v>18551973877</v>
+        <v>18913717831</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>美标(光华门石林家居广场店)</v>
+        <v>东意盛装饰</v>
       </c>
       <c r="B183" t="str">
-        <v>13951967715</v>
+        <v>18912760885</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>陈记六合老鹅</v>
+        <v>捷鸿印刷厂(胶印-江宁路分部)</v>
       </c>
       <c r="B184" t="str">
-        <v>13512512193</v>
+        <v>18551973877</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>金陵印社(解放路)</v>
+        <v>美标(光华门石林家居广场店)</v>
       </c>
       <c r="B185" t="str">
-        <v>13675135036</v>
+        <v>13951967715</v>
       </c>
     </row>
     <row r="186">
@@ -1956,46 +1956,62 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>南京U玩户外俱乐部</v>
+        <v>金陵印社(解放路)</v>
       </c>
       <c r="B187" t="str">
-        <v>13813380359</v>
+        <v>13675135036</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>徐州杂粮煎饼</v>
+        <v>南京U玩户外俱乐部</v>
       </c>
       <c r="B188" t="str">
-        <v>18136855921</v>
+        <v>13813380359</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>欢乐糖果园</v>
+        <v>徐州杂粮煎饼</v>
       </c>
       <c r="B189" t="str">
-        <v>13222029900</v>
+        <v>18136855921</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
+        <v>欢乐糖果园</v>
+      </c>
+      <c r="B190" t="str">
+        <v>13222029900</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>陈记六合老鹅</v>
+      </c>
+      <c r="B191" t="str">
+        <v>13512512193</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
         <v>锦华发型</v>
       </c>
-      <c r="B190" t="str">
+      <c r="B192" t="str">
         <v>15252775096</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D190"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D192"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2010,816 +2026,888 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>张家港市锦丰镇合兴晓峰建材店</v>
+        <v>金维思装饰</v>
       </c>
       <c r="B2" t="str">
-        <v>15862613823</v>
+        <v>13915702525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>张家港捷众劳保用品有限公司</v>
+        <v>张家港市杨舍福前鲁城装饰工程服务部</v>
       </c>
       <c r="B3" t="str">
-        <v>18913619690</v>
-      </c>
-      <c r="C3" t="str">
-        <v>15895471732</v>
+        <v>13862218485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>张家港市乐余坤龙家具店</v>
+        <v>博美装饰</v>
       </c>
       <c r="B4" t="str">
-        <v>13338033821</v>
+        <v>18051846206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>张家港市乐余丽珀卫浴店</v>
+        <v>张家港工一装饰工程有限公司</v>
       </c>
       <c r="B5" t="str">
-        <v>13962294180</v>
+        <v>17001567777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>帝缦软装设计机构</v>
+        <v>森源装饰工程有限公司(华山路)</v>
       </c>
       <c r="B6" t="str">
-        <v>18915677778</v>
+        <v>18013606866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>金点子装饰</v>
+        <v>张家港市新潮建筑装饰工程有限公司</v>
       </c>
       <c r="B7" t="str">
-        <v>13776272517</v>
+        <v>13739162795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>张家港靴子装饰工程有限公司</v>
+        <v>艺隆装饰</v>
       </c>
       <c r="B8" t="str">
-        <v>13915461001</v>
+        <v>18118483686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>张家港瑞欣土石方挖掘服务有限公司</v>
+        <v>辰茂装饰</v>
       </c>
       <c r="B9" t="str">
-        <v>13862220963</v>
+        <v>18751185085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>张家港市皇朝装饰设计有限公司</v>
+        <v>天和装饰</v>
       </c>
       <c r="B10" t="str">
-        <v>15862623888</v>
+        <v>13806222207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>苏州文同装饰工程有限公司</v>
+        <v>张家港捷众劳保用品有限公司</v>
       </c>
       <c r="B11" t="str">
-        <v>18963692635</v>
+        <v>18913619690</v>
+      </c>
+      <c r="C11" t="str">
+        <v>15895471732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>张家港市乐余旭东装饰装潢服务部</v>
+        <v>张家港市锦丰镇合兴晓峰建材店</v>
       </c>
       <c r="B12" t="str">
-        <v>13862239132</v>
+        <v>15862613823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>张家港市锦丰镇合兴恒业道路养护服务部</v>
+        <v>张家港市乐余坤龙家具店</v>
       </c>
       <c r="B13" t="str">
-        <v>13601563519</v>
+        <v>13338033821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>张家港市锦丰镇合兴惠民水电配件经营部</v>
+        <v>金点子装饰</v>
       </c>
       <c r="B14" t="str">
-        <v>15301569391</v>
+        <v>13776272517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>张家港市常阴沙现代农业示范园永兵建筑工程队</v>
+        <v>帝缦软装设计机构</v>
       </c>
       <c r="B15" t="str">
-        <v>13812995548</v>
+        <v>18915677778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>张家港市锦丰裕祥装饰装璜服务部</v>
+        <v>张家港市常阴沙现代农业示范园华伟装饰装潢工程队</v>
       </c>
       <c r="B16" t="str">
-        <v>13962265228</v>
+        <v>15306243218</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>张家港市常阴沙现代农业示范园华伟装饰装潢工程队</v>
+        <v>张家港靴子装饰工程有限公司</v>
       </c>
       <c r="B17" t="str">
-        <v>15306243218</v>
+        <v>13915461001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>鑫胜装潢设计</v>
+        <v>苏州文同装饰工程有限公司</v>
       </c>
       <c r="B18" t="str">
-        <v>13962297386</v>
+        <v>18963692635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>金莱顿装饰</v>
+        <v>张家港市乐余旭东装饰装潢服务部</v>
       </c>
       <c r="B19" t="str">
-        <v>13902330183</v>
+        <v>13862239132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>鼎悦装饰</v>
+        <v>张家港市锦丰镇合兴惠民水电配件经营部</v>
       </c>
       <c r="B20" t="str">
-        <v>13913612061</v>
+        <v>15301569391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>红樱花装饰</v>
+        <v>张家港市常阴沙现代农业示范园永兵建筑工程队</v>
       </c>
       <c r="B21" t="str">
-        <v>15895692998</v>
+        <v>13812995548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>幔莎软装设计</v>
+        <v>张家港市乐余丽珀卫浴店</v>
       </c>
       <c r="B22" t="str">
-        <v>15262306580</v>
+        <v>13962294180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>艺墅家装饰</v>
+        <v>张家港市锦丰镇合兴恒业道路养护服务部</v>
       </c>
       <c r="B23" t="str">
-        <v>18962288582</v>
+        <v>13601563519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>苏州顺麒国际装饰(金港店)</v>
+        <v>张家港市锦丰裕祥装饰装璜服务部</v>
       </c>
       <c r="B24" t="str">
-        <v>13584480532</v>
+        <v>13962265228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>丰拓装饰</v>
+        <v>张家港市皇朝装饰设计有限公司</v>
       </c>
       <c r="B25" t="str">
-        <v>13812850376</v>
+        <v>15862623888</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>英诺设计</v>
+        <v>张家港瑞欣土石方挖掘服务有限公司</v>
       </c>
       <c r="B26" t="str">
-        <v>18020232033</v>
+        <v>13862220963</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>腾达装潢</v>
+        <v>红樱花装饰</v>
       </c>
       <c r="B27" t="str">
-        <v>13862264843</v>
+        <v>15895692998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>张家港市成德装饰设计有限公司</v>
+        <v>艺墅家装饰</v>
       </c>
       <c r="B28" t="str">
-        <v>18962224789</v>
+        <v>18962288582</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>新洲装饰</v>
+        <v>幔莎软装设计</v>
       </c>
       <c r="B29" t="str">
-        <v>18862460717</v>
+        <v>15262306580</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>筑凡装饰</v>
+        <v>鼎悦装饰</v>
       </c>
       <c r="B30" t="str">
-        <v>13151191670</v>
-      </c>
-      <c r="C30" t="str">
-        <v>13773276645</v>
+        <v>13913612061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>卓立东方装饰</v>
+        <v>金莱顿装饰</v>
       </c>
       <c r="B31" t="str">
-        <v>13706260817</v>
+        <v>13902330183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>雅佳装饰港区分公司</v>
+        <v>新洲装饰</v>
       </c>
       <c r="B32" t="str">
-        <v>13962289008</v>
+        <v>18862460717</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>综艺装饰(长安中路)</v>
+        <v>英诺设计</v>
       </c>
       <c r="B33" t="str">
-        <v>13801568625</v>
+        <v>18020232033</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>张家港室内设计培训学校</v>
+        <v>腾达装潢</v>
       </c>
       <c r="B34" t="str">
-        <v>15806134196</v>
+        <v>13862264843</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>九居装饰</v>
+        <v>张家港市成德装饰设计有限公司</v>
       </c>
       <c r="B35" t="str">
-        <v>13372139565</v>
+        <v>18962224789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>天辰装饰(永安路)</v>
+        <v>苏州顺麒国际装饰(金港店)</v>
       </c>
       <c r="B36" t="str">
-        <v>13773228212</v>
+        <v>13584480532</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>万家美装饰工程有限公司</v>
+        <v>丰拓装饰</v>
       </c>
       <c r="B37" t="str">
-        <v>18021235158</v>
+        <v>13812850376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>轩宝达装饰</v>
+        <v>鑫胜装潢设计</v>
       </c>
       <c r="B38" t="str">
-        <v>15950966669</v>
-      </c>
-      <c r="C38" t="str">
-        <v>15950956789</v>
+        <v>13962297386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>玖居野装饰</v>
+        <v>雅佳装饰港区分公司</v>
       </c>
       <c r="B39" t="str">
-        <v>18962205012</v>
-      </c>
-      <c r="C39" t="str">
-        <v>15151597761</v>
+        <v>13962289008</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>昂贯装饰设计</v>
+        <v>九居装饰</v>
       </c>
       <c r="B40" t="str">
-        <v>15900940027</v>
+        <v>13372139565</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>佳和鑫装饰</v>
+        <v>天辰装饰(永安路)</v>
       </c>
       <c r="B41" t="str">
-        <v>13812850376</v>
+        <v>13773228212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>江龙装饰工程装潢部</v>
+        <v>卓立东方装饰</v>
       </c>
       <c r="B42" t="str">
-        <v>13584481348</v>
+        <v>13706260817</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>诚信装潢</v>
+        <v>金辉装潢部</v>
       </c>
       <c r="B43" t="str">
-        <v>13776252939</v>
+        <v>13773288736</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>饰美壹佳装饰</v>
+        <v>万家美装饰工程有限公司</v>
       </c>
       <c r="B44" t="str">
-        <v>17372562109</v>
+        <v>18021235158</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>同和装饰</v>
+        <v>昂贯装饰设计</v>
       </c>
       <c r="B45" t="str">
-        <v>18662632299</v>
-      </c>
-      <c r="C45" t="str">
-        <v>13962466479</v>
+        <v>15900940027</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>华逸装饰</v>
+        <v>玖居野装饰</v>
       </c>
       <c r="B46" t="str">
-        <v>13773268478</v>
+        <v>18962205012</v>
+      </c>
+      <c r="C46" t="str">
+        <v>15151597761</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>格豪菲林装修</v>
+        <v>筑凡装饰</v>
       </c>
       <c r="B47" t="str">
-        <v>18651128979</v>
+        <v>13151191670</v>
+      </c>
+      <c r="C47" t="str">
+        <v>13773276645</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>楠方装饰</v>
+        <v>轩宝达装饰</v>
       </c>
       <c r="B48" t="str">
-        <v>13921983858</v>
+        <v>15950966669</v>
+      </c>
+      <c r="C48" t="str">
+        <v>15950956789</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>馨尚设计装饰</v>
+        <v>张家港室内设计培训学校</v>
       </c>
       <c r="B49" t="str">
-        <v>13915695312</v>
+        <v>15806134196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>艺铭轩装饰</v>
+        <v>阿奇装修装饰</v>
       </c>
       <c r="B50" t="str">
-        <v>13328037789</v>
+        <v>13706133722</v>
+      </c>
+      <c r="C50" t="str">
+        <v>18962223799</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>科乐装饰</v>
+        <v>嘉美家装饰</v>
       </c>
       <c r="B51" t="str">
-        <v>13812842368</v>
+        <v>15722607635</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>宜家装饰</v>
+        <v>神笔设计</v>
       </c>
       <c r="B52" t="str">
-        <v>15851615802</v>
+        <v>13915622677</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>阿奇装修装饰</v>
+        <v>诚信装潢</v>
       </c>
       <c r="B53" t="str">
-        <v>13706133722</v>
-      </c>
-      <c r="C53" t="str">
-        <v>18962223799</v>
+        <v>13776252939</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>神笔设计</v>
+        <v>馨尚设计装饰</v>
       </c>
       <c r="B54" t="str">
-        <v>13915622677</v>
+        <v>13915695312</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>金辉装潢部</v>
+        <v>饰美壹佳装饰</v>
       </c>
       <c r="B55" t="str">
-        <v>13773288736</v>
+        <v>17372562109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>优力特装饰</v>
+        <v>楠方装饰</v>
       </c>
       <c r="B56" t="str">
-        <v>13862264927</v>
-      </c>
-      <c r="C56" t="str">
-        <v>13913608680</v>
+        <v>13921983858</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>鑫忆装潢</v>
+        <v>同和装饰</v>
       </c>
       <c r="B57" t="str">
-        <v>18551180948</v>
+        <v>18662632299</v>
+      </c>
+      <c r="C57" t="str">
+        <v>13962466479</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>张家港市宏泰来装饰有限公司</v>
+        <v>江龙装饰工程装潢部</v>
       </c>
       <c r="B58" t="str">
-        <v>18962266611</v>
+        <v>13584481348</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>嘉美家装饰</v>
+        <v>华逸装饰</v>
       </c>
       <c r="B59" t="str">
-        <v>15722607635</v>
+        <v>13773268478</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>新潮建筑装饰工程有限公司</v>
+        <v>格豪菲林装修</v>
       </c>
       <c r="B60" t="str">
-        <v>13218138705</v>
-      </c>
-      <c r="C60" t="str">
-        <v>15950950661</v>
+        <v>18651128979</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>家祥不锈钢门窗经营部文通装潢部</v>
+        <v>艺铭轩装饰</v>
       </c>
       <c r="B61" t="str">
-        <v>13812875098</v>
-      </c>
-      <c r="C61" t="str">
-        <v>13584442534</v>
+        <v>13328037789</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>墨凡信息</v>
+        <v>鑫忆装潢</v>
       </c>
       <c r="B62" t="str">
-        <v>13962216317</v>
-      </c>
-      <c r="C62" t="str">
-        <v>18915707399</v>
+        <v>18551180948</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>元享装饰</v>
+        <v>宜家装饰</v>
       </c>
       <c r="B63" t="str">
-        <v>13405296813</v>
-      </c>
-      <c r="C63" t="str">
-        <v>18862471145</v>
+        <v>15851615802</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>蓝色装饰</v>
+        <v>综艺装饰(长安中路)</v>
       </c>
       <c r="B64" t="str">
-        <v>13862127100</v>
+        <v>13801568625</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>嘉润装饰</v>
+        <v>优力特装饰</v>
       </c>
       <c r="B65" t="str">
-        <v>13092635165</v>
+        <v>13862264927</v>
+      </c>
+      <c r="C65" t="str">
+        <v>13913608680</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>琳琅装饰(新农路)</v>
+        <v>佳和鑫装饰</v>
       </c>
       <c r="B66" t="str">
-        <v>13338678786</v>
+        <v>13812850376</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>唐艺和风</v>
+        <v>张家港市宏泰来装饰有限公司</v>
       </c>
       <c r="B67" t="str">
-        <v>15601568818</v>
+        <v>18962266611</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>张家港铭尚装饰工程有限公司</v>
+        <v>科乐装饰</v>
       </c>
       <c r="B68" t="str">
-        <v>13451581580</v>
+        <v>13812842368</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>张家港市金港镇红马装饰</v>
+        <v>家祥不锈钢门窗经营部文通装潢部</v>
       </c>
       <c r="B69" t="str">
-        <v>18086707960</v>
+        <v>13812875098</v>
+      </c>
+      <c r="C69" t="str">
+        <v>13584442534</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>鸿飞装饰</v>
+        <v>华弘装饰</v>
       </c>
       <c r="B70" t="str">
-        <v>18013292881</v>
+        <v>18018158296</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>中恒装饰</v>
+        <v>张家港铭尚装饰工程有限公司</v>
       </c>
       <c r="B71" t="str">
-        <v>18625042013</v>
+        <v>13451581580</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>天品装饰(港城大道)</v>
+        <v>新潮建筑装饰工程有限公司</v>
       </c>
       <c r="B72" t="str">
-        <v>18962288688</v>
+        <v>13218138705</v>
+      </c>
+      <c r="C72" t="str">
+        <v>15950950661</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>华恒装饰</v>
+        <v>张家港市金港镇红马装饰</v>
       </c>
       <c r="B73" t="str">
-        <v>13962288446</v>
+        <v>18086707960</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>华弘装饰</v>
+        <v>蓝色装饰</v>
       </c>
       <c r="B74" t="str">
-        <v>18018158296</v>
+        <v>13862127100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>丽华装饰设计</v>
+        <v>琳琅装饰(新农路)</v>
       </c>
       <c r="B75" t="str">
-        <v>17312162000</v>
+        <v>13338678786</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>雅洁装饰</v>
+        <v>嘉润装饰</v>
       </c>
       <c r="B76" t="str">
-        <v>13801564486</v>
+        <v>13092635165</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>易强装饰设计有限公司</v>
+        <v>元享装饰</v>
       </c>
       <c r="B77" t="str">
-        <v>13584468287</v>
+        <v>13405296813</v>
+      </c>
+      <c r="C77" t="str">
+        <v>18862471145</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>蜗牛装饰</v>
+        <v>鸿飞装饰</v>
       </c>
       <c r="B78" t="str">
-        <v>18094262982</v>
+        <v>18013292881</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>大管家装修监理有限公司</v>
+        <v>中恒装饰</v>
       </c>
       <c r="B79" t="str">
-        <v>13901566856</v>
+        <v>18625042013</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>富丽华装饰工程公司</v>
+        <v>天品装饰(港城大道)</v>
       </c>
       <c r="B80" t="str">
-        <v>15722690030</v>
+        <v>18962288688</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>春成装饰设计公司</v>
+        <v>蜗牛装饰</v>
       </c>
       <c r="B81" t="str">
-        <v>15006247729</v>
+        <v>18094262982</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>金诚名家装饰</v>
+        <v>墨凡信息</v>
       </c>
       <c r="B82" t="str">
-        <v>13812841309</v>
+        <v>13962216317</v>
       </c>
       <c r="C82" t="str">
-        <v>18962310060</v>
+        <v>18915707399</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>玉林设计装潢</v>
+        <v>大管家装修监理有限公司</v>
       </c>
       <c r="B83" t="str">
-        <v>13584494177</v>
-      </c>
-      <c r="C83" t="str">
-        <v>18362214443</v>
+        <v>13901566856</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>东宇装饰</v>
+        <v>唐艺和风</v>
       </c>
       <c r="B84" t="str">
-        <v>13140830351</v>
+        <v>15601568818</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>家博士装饰</v>
+        <v>华恒装饰</v>
       </c>
       <c r="B85" t="str">
-        <v>13812998629</v>
-      </c>
-      <c r="C85" t="str">
-        <v>13921951164</v>
+        <v>13962288446</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>张家港市千思装饰工程有限公司</v>
+        <v>雅洁装饰</v>
       </c>
       <c r="B86" t="str">
-        <v>13812875399</v>
+        <v>13801564486</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>港峰装饰工程有限公司</v>
+        <v>易强装饰设计有限公司</v>
       </c>
       <c r="B87" t="str">
-        <v>18862625350</v>
+        <v>13584468287</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>张家港市鸟巢建筑装饰工程有限公司</v>
+        <v>丽华装饰设计</v>
       </c>
       <c r="B88" t="str">
-        <v>18013615888</v>
+        <v>17312162000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>美迪雅装饰</v>
+        <v>张家港市千思装饰工程有限公司</v>
       </c>
       <c r="B89" t="str">
-        <v>13301565816</v>
+        <v>13812875399</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>洪志装潢</v>
+        <v>玉林设计装潢</v>
       </c>
       <c r="B90" t="str">
-        <v>15851645568</v>
+        <v>13584494177</v>
+      </c>
+      <c r="C90" t="str">
+        <v>18362214443</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>金宇装饰安装工程有限公司</v>
+        <v>张家港市鸟巢建筑装饰工程有限公司</v>
       </c>
       <c r="B91" t="str">
-        <v>13506226323</v>
+        <v>18013615888</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>达达·非凡装饰</v>
+        <v>美迪雅装饰</v>
       </c>
       <c r="B92" t="str">
-        <v>13773252372</v>
+        <v>13301565816</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>鑫诚装潢</v>
+        <v>春成装饰设计公司</v>
       </c>
       <c r="B93" t="str">
-        <v>13390838753</v>
+        <v>15006247729</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>佳贤装饰工程有限公司</v>
+        <v>泉润装饰</v>
       </c>
       <c r="B94" t="str">
-        <v>13914916758</v>
+        <v>13915699186</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>广东星艺装饰集团(沙洲西路)</v>
+        <v>家博士装饰</v>
       </c>
       <c r="B95" t="str">
-        <v>18501507675</v>
+        <v>13812998629</v>
+      </c>
+      <c r="C95" t="str">
+        <v>13921951164</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>泉润装饰</v>
+        <v>洪志装潢</v>
       </c>
       <c r="B96" t="str">
-        <v>13915699186</v>
+        <v>15851645568</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>金宇装饰安装工程有限公司</v>
+      </c>
+      <c r="B97" t="str">
+        <v>13506226323</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>广东星艺装饰集团(沙洲西路)</v>
+      </c>
+      <c r="B98" t="str">
+        <v>18501507675</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>鑫诚装潢</v>
+      </c>
+      <c r="B99" t="str">
+        <v>13390838753</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>金诚名家装饰</v>
+      </c>
+      <c r="B100" t="str">
+        <v>13812841309</v>
+      </c>
+      <c r="C100" t="str">
+        <v>18962310060</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>富丽华装饰工程公司</v>
+      </c>
+      <c r="B101" t="str">
+        <v>15722690030</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>佳贤装饰工程有限公司</v>
+      </c>
+      <c r="B102" t="str">
+        <v>13914916758</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>东宇装饰</v>
+      </c>
+      <c r="B103" t="str">
+        <v>13140830351</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>达达·非凡装饰</v>
+      </c>
+      <c r="B104" t="str">
+        <v>13773252372</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>港峰装饰工程有限公司</v>
+      </c>
+      <c r="B105" t="str">
+        <v>18862625350</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C105"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2834,724 +2922,780 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>维升特建筑系统（苏州）有限公司</v>
+        <v>星海装饰</v>
       </c>
       <c r="B2" t="str">
-        <v>18913785867</v>
+        <v>18900622878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>苏州斐迪莱建筑安装工程有限公司</v>
+        <v>苏州中宸建筑装饰工程有限公司</v>
       </c>
       <c r="B3" t="str">
-        <v>18012712340</v>
+        <v>18012719268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>丽至宝装饰工程（苏州）有限公司</v>
+        <v>澔居装饰</v>
       </c>
       <c r="B4" t="str">
-        <v>15606261067</v>
+        <v>13773219388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>苏州福丽装饰材料有限公司</v>
+        <v>太仓市生强装潢有限公司</v>
       </c>
       <c r="B5" t="str">
-        <v>13862563535</v>
+        <v>13706243967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>苏州接福建筑装饰材料有限公司</v>
+        <v>艺邦装饰</v>
       </c>
       <c r="B6" t="str">
-        <v>13915771868</v>
+        <v>13812904592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>苏州桦烁装饰装潢有限公司</v>
+        <v>创艺家建筑装饰工程公司</v>
       </c>
       <c r="B7" t="str">
-        <v>13862284697</v>
+        <v>13913751066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>善友装饰</v>
+        <v>龙海装潢</v>
       </c>
       <c r="B8" t="str">
-        <v>13338681677</v>
+        <v>13915765644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>大唐上水装潢</v>
+        <v>苏州福丽装饰材料有限公司</v>
       </c>
       <c r="B9" t="str">
-        <v>13601689672</v>
+        <v>13862563535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>如意装潢</v>
+        <v>苏州斐迪莱建筑安装工程有限公司</v>
       </c>
       <c r="B10" t="str">
-        <v>13812923101</v>
+        <v>18012712340</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>安居装饰</v>
+        <v>苏州桦烁装饰装潢有限公司</v>
       </c>
       <c r="B11" t="str">
-        <v>15862604445</v>
+        <v>13862284697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>诚信装潢</v>
+        <v>苏州接福建筑装饰材料有限公司</v>
       </c>
       <c r="B12" t="str">
-        <v>15962275791</v>
+        <v>13915771868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>浩美装饰</v>
+        <v>维升特建筑系统（苏州）有限公司</v>
       </c>
       <c r="B13" t="str">
-        <v>13773174287</v>
-      </c>
-      <c r="C13" t="str">
-        <v>15370777587</v>
+        <v>18913785867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>金刻装饰</v>
+        <v>丽至宝装饰工程（苏州）有限公司</v>
       </c>
       <c r="B14" t="str">
-        <v>15862323755</v>
+        <v>15606261067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>双靖装潢</v>
+        <v>善友装饰</v>
       </c>
       <c r="B15" t="str">
-        <v>15962272436</v>
+        <v>13338681677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>华盛装饰</v>
+        <v>大唐上水装潢</v>
       </c>
       <c r="B16" t="str">
-        <v>13806246505</v>
+        <v>13601689672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>鸿艺经典装饰</v>
+        <v>如意装潢</v>
       </c>
       <c r="B17" t="str">
-        <v>13776180751</v>
+        <v>13812923101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>上海天郎装饰</v>
+        <v>安居装饰</v>
       </c>
       <c r="B18" t="str">
-        <v>15962285359</v>
+        <v>15862604445</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>义东装饰</v>
+        <v>诚信装潢</v>
       </c>
       <c r="B19" t="str">
-        <v>18262666738</v>
+        <v>15962275791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>彭泰装饰</v>
+        <v>双靖装潢</v>
       </c>
       <c r="B20" t="str">
-        <v>15062303412</v>
+        <v>15962272436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>新都装饰</v>
+        <v>金刻装饰</v>
       </c>
       <c r="B21" t="str">
-        <v>17751131444</v>
+        <v>15862323755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>泛亚设计</v>
+        <v>华盛装饰</v>
       </c>
       <c r="B22" t="str">
-        <v>13372118999</v>
+        <v>13806246505</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>东创装饰(郑和中路)</v>
+        <v>浩美装饰</v>
       </c>
       <c r="B23" t="str">
-        <v>18906222999</v>
+        <v>13773174287</v>
+      </c>
+      <c r="C23" t="str">
+        <v>15370777587</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>连源装饰(太仓店)</v>
+        <v>义东装饰</v>
       </c>
       <c r="B24" t="str">
-        <v>18913775552</v>
+        <v>18262666738</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>上海迪福装饰</v>
+        <v>泛亚设计</v>
       </c>
       <c r="B25" t="str">
-        <v>18915777449</v>
+        <v>13372118999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>明豪本地装修</v>
+        <v>彭泰装饰</v>
       </c>
       <c r="B26" t="str">
-        <v>18013772605</v>
-      </c>
-      <c r="C26" t="str">
-        <v>18262099766</v>
+        <v>15062303412</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>新华装潢</v>
+        <v>上海天郎装饰</v>
       </c>
       <c r="B27" t="str">
-        <v>13013855850</v>
-      </c>
-      <c r="C27" t="str">
-        <v>13815270996</v>
+        <v>15962285359</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>迎春装饰装潢服务部</v>
+        <v>鸿艺经典装饰</v>
       </c>
       <c r="B28" t="str">
-        <v>13809058687</v>
+        <v>13776180751</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>秋亚装饰(新塘店)</v>
+        <v>新都装饰</v>
       </c>
       <c r="B29" t="str">
-        <v>13306220177</v>
+        <v>17751131444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>锦承唯镁装饰</v>
+        <v>连源装饰(太仓店)</v>
       </c>
       <c r="B30" t="str">
-        <v>18052428165</v>
+        <v>18913775552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>信赖装潢</v>
+        <v>东创装饰(郑和中路)</v>
       </c>
       <c r="B31" t="str">
-        <v>13962400679</v>
+        <v>18906222999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>柠檬装饰(古塘街)</v>
+        <v>迎春装饰装潢服务部</v>
       </c>
       <c r="B32" t="str">
-        <v>13862380881</v>
+        <v>13809058687</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>燕之巢装饰</v>
+        <v>上海迪福装饰</v>
       </c>
       <c r="B33" t="str">
-        <v>18262678257</v>
+        <v>18915777449</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>品巢装饰工程有限公司</v>
+        <v>新华装潢</v>
       </c>
       <c r="B34" t="str">
-        <v>15599057777</v>
+        <v>13013855850</v>
+      </c>
+      <c r="C34" t="str">
+        <v>13815270996</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>上海塘鑫装潢</v>
+        <v>秋亚装饰(新塘店)</v>
       </c>
       <c r="B35" t="str">
-        <v>15150328083</v>
+        <v>13306220177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>兄弟装潢</v>
+        <v>锦承唯镁装饰</v>
       </c>
       <c r="B36" t="str">
-        <v>13706240408</v>
+        <v>18052428165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>沪利装饰设计(太仓店)</v>
+        <v>信赖装潢</v>
       </c>
       <c r="B37" t="str">
-        <v>13122588188</v>
+        <v>13962400679</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>居家装饰设计有限公司</v>
+        <v>柠檬装饰(古塘街)</v>
       </c>
       <c r="B38" t="str">
-        <v>13092640186</v>
+        <v>13862380881</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>新月装潢部</v>
+        <v>沪利装饰设计(太仓店)</v>
       </c>
       <c r="B39" t="str">
-        <v>13962416508</v>
+        <v>13122588188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>天星装饰</v>
+        <v>燕之巢装饰</v>
       </c>
       <c r="B40" t="str">
-        <v>13004547417</v>
-      </c>
-      <c r="C40" t="str">
-        <v>18915792362</v>
+        <v>18262678257</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>齐艺·家装饰设计</v>
+        <v>品巢装饰工程有限公司</v>
       </c>
       <c r="B41" t="str">
-        <v>18892412969</v>
+        <v>15599057777</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>雪峰装潢</v>
+        <v>明豪本地装修</v>
       </c>
       <c r="B42" t="str">
-        <v>15190155219</v>
+        <v>18013772605</v>
+      </c>
+      <c r="C42" t="str">
+        <v>18262099766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>昊敏装潢</v>
+        <v>上海塘鑫装潢</v>
       </c>
       <c r="B43" t="str">
-        <v>13773013975</v>
+        <v>15150328083</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>云名装饰</v>
+        <v>居家装饰设计有限公司</v>
       </c>
       <c r="B44" t="str">
-        <v>18086727798</v>
+        <v>13092640186</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>居静装饰(浏河店)</v>
+        <v>天星装饰</v>
       </c>
       <c r="B45" t="str">
-        <v>18915771480</v>
+        <v>13004547417</v>
+      </c>
+      <c r="C45" t="str">
+        <v>18915792362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>盛添装饰</v>
+        <v>齐艺·家装饰设计</v>
       </c>
       <c r="B46" t="str">
-        <v>15962276079</v>
+        <v>18892412969</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>佳龙装饰</v>
+        <v>雪峰装潢</v>
       </c>
       <c r="B47" t="str">
-        <v>13814596100</v>
+        <v>15190155219</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>奔奕装修</v>
+        <v>新月装潢部</v>
       </c>
       <c r="B48" t="str">
-        <v>18221267989</v>
+        <v>13962416508</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>创腾装饰</v>
+        <v>兄弟装潢</v>
       </c>
       <c r="B49" t="str">
-        <v>13616225094</v>
+        <v>13706240408</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>苏情装饰</v>
+        <v>昊敏装潢</v>
       </c>
       <c r="B50" t="str">
-        <v>13776232498</v>
+        <v>13773013975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>异度空间装饰</v>
+        <v>云名装饰</v>
       </c>
       <c r="B51" t="str">
-        <v>13915798859</v>
+        <v>18086727798</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>天郎装饰</v>
+        <v>居静装饰(浏河店)</v>
       </c>
       <c r="B52" t="str">
-        <v>15162597800</v>
-      </c>
-      <c r="C52" t="str">
-        <v>15962285359</v>
+        <v>18915771480</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>益民装潢部</v>
+        <v>佳龙装饰</v>
       </c>
       <c r="B53" t="str">
-        <v>13915786391</v>
+        <v>13814596100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>新天地建筑装潢服务部</v>
+        <v>异度空间装饰</v>
       </c>
       <c r="B54" t="str">
-        <v>13809059846</v>
+        <v>13915798859</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>幸福园房屋中介装饰公司</v>
+        <v>天郎装饰</v>
       </c>
       <c r="B55" t="str">
-        <v>13913792939</v>
+        <v>15162597800</v>
       </c>
       <c r="C55" t="str">
-        <v>13814598988</v>
+        <v>15962285359</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>明居装饰</v>
+        <v>益民装潢部</v>
       </c>
       <c r="B56" t="str">
-        <v>13771946762</v>
+        <v>13915786391</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>美家美户整体软装设计</v>
+        <v>盛添装饰</v>
       </c>
       <c r="B57" t="str">
-        <v>18051793679</v>
+        <v>15962276079</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>上海姚曙装饰</v>
+        <v>新天地建筑装潢服务部</v>
       </c>
       <c r="B58" t="str">
-        <v>18051799893</v>
+        <v>13809059846</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>金巢装饰</v>
+        <v>幸福园房屋中介装饰公司</v>
       </c>
       <c r="B59" t="str">
-        <v>15995587217</v>
+        <v>13913792939</v>
+      </c>
+      <c r="C59" t="str">
+        <v>13814598988</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>晓余装潢部</v>
+        <v>明居装饰</v>
       </c>
       <c r="B60" t="str">
-        <v>13141812335</v>
-      </c>
-      <c r="C60" t="str">
-        <v>13915782445</v>
+        <v>13771946762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>银桥装饰</v>
+        <v>金巢装饰</v>
       </c>
       <c r="B61" t="str">
-        <v>13862386279</v>
+        <v>15995587217</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>九轩装饰</v>
+        <v>上海姚曙装饰</v>
       </c>
       <c r="B62" t="str">
-        <v>13862388636</v>
+        <v>18051799893</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>太仓市偌德装饰工程有限公司</v>
+        <v>银桥装饰</v>
       </c>
       <c r="B63" t="str">
-        <v>18962412001</v>
+        <v>13862386279</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>大红字装饰</v>
+        <v>创腾装饰</v>
       </c>
       <c r="B64" t="str">
-        <v>18913776866</v>
+        <v>13616225094</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>上海阳光装饰</v>
+        <v>晓余装潢部</v>
       </c>
       <c r="B65" t="str">
-        <v>13915792381</v>
+        <v>13141812335</v>
+      </c>
+      <c r="C65" t="str">
+        <v>13915782445</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>上海美蝶装饰</v>
+        <v>九轩装饰</v>
       </c>
       <c r="B66" t="str">
-        <v>13814577873</v>
+        <v>13862388636</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>沙米宁装饰设计机构</v>
+        <v>奔奕装修</v>
       </c>
       <c r="B67" t="str">
-        <v>18013787100</v>
+        <v>18221267989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>上海波涛装饰集团太仓公司</v>
+        <v>苏情装饰</v>
       </c>
       <c r="B68" t="str">
-        <v>18550075820</v>
+        <v>13776232498</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>玖鼎装饰</v>
+        <v>美家美户整体软装设计</v>
       </c>
       <c r="B69" t="str">
-        <v>15162596555</v>
+        <v>18051793679</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>上海杰友装饰</v>
+        <v>太仓市偌德装饰工程有限公司</v>
       </c>
       <c r="B70" t="str">
-        <v>18913767688</v>
+        <v>18962412001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>苏州誉诺装饰</v>
+        <v>上海阳光装饰</v>
       </c>
       <c r="B71" t="str">
-        <v>15358849779</v>
+        <v>13915792381</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>涵艺全屋定制装饰</v>
+        <v>上海美蝶装饰</v>
       </c>
       <c r="B72" t="str">
-        <v>13913752996</v>
+        <v>13814577873</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>德顺装饰</v>
+        <v>沙米宁装饰设计机构</v>
       </c>
       <c r="B73" t="str">
-        <v>13809058475</v>
+        <v>18013787100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>恒业装饰设计</v>
+        <v>上海波涛装饰集团太仓公司</v>
       </c>
       <c r="B74" t="str">
-        <v>13584919678</v>
+        <v>18550075820</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>艾尚佳装饰</v>
+        <v>玖鼎装饰</v>
       </c>
       <c r="B75" t="str">
-        <v>18115575883</v>
+        <v>15162596555</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>管家装修</v>
+        <v>涵艺全屋定制装饰</v>
       </c>
       <c r="B76" t="str">
-        <v>18013777202</v>
+        <v>13913752996</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>浏河常青装潢部</v>
+        <v>鸿亿装饰</v>
       </c>
       <c r="B77" t="str">
-        <v>13915797524</v>
+        <v>13862383730</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>太仓匠承装饰设计工程有限公司</v>
+        <v>鑫锐装饰</v>
       </c>
       <c r="B78" t="str">
-        <v>15370300888</v>
+        <v>13405698972</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>尊艺装饰</v>
+        <v>苏州誉诺装饰</v>
       </c>
       <c r="B79" t="str">
-        <v>13915774884</v>
+        <v>15358849779</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>协瑞装饰</v>
+        <v>德顺装饰</v>
       </c>
       <c r="B80" t="str">
-        <v>18626226101</v>
+        <v>13809058475</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>鸿亿装饰</v>
+        <v>大红字装饰</v>
       </c>
       <c r="B81" t="str">
-        <v>13862383730</v>
+        <v>18913776866</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>苏州景旭缘装饰</v>
+        <v>恒业装饰设计</v>
       </c>
       <c r="B82" t="str">
-        <v>13812926228</v>
+        <v>13584919678</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>浩翔装潢工程部</v>
+        <v>艾尚佳装饰</v>
       </c>
       <c r="B83" t="str">
-        <v>13915496068</v>
+        <v>18115575883</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>绿叶装潢</v>
+        <v>管家装修</v>
       </c>
       <c r="B84" t="str">
-        <v>13915762108</v>
+        <v>18013777202</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>LEGEND陈策划工作室</v>
+        <v>浏河常青装潢部</v>
       </c>
       <c r="B85" t="str">
-        <v>13773200878</v>
+        <v>13915797524</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>铭匠装饰(郑和中路)</v>
+        <v>太仓匠承装饰设计工程有限公司</v>
       </c>
       <c r="B86" t="str">
-        <v>15180630855</v>
+        <v>15370300888</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>鑫锐装饰</v>
+        <v>尊艺装饰</v>
       </c>
       <c r="B87" t="str">
-        <v>13405698972</v>
+        <v>13915774884</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
+        <v>协瑞装饰</v>
+      </c>
+      <c r="B88" t="str">
+        <v>18626226101</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>苏州景旭缘装饰</v>
+      </c>
+      <c r="B89" t="str">
+        <v>13812926228</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>浩翔装潢工程部</v>
+      </c>
+      <c r="B90" t="str">
+        <v>13915496068</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>绿叶装潢</v>
+      </c>
+      <c r="B91" t="str">
+        <v>13915762108</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>LEGEND陈策划工作室</v>
+      </c>
+      <c r="B92" t="str">
+        <v>13773200878</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
         <v>太仓安莱装饰工程有限公司</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B93" t="str">
         <v>13862792886</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>铭匠装饰(郑和中路)</v>
+      </c>
+      <c r="B94" t="str">
+        <v>15180630855</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>上海杰友装饰</v>
+      </c>
+      <c r="B95" t="str">
+        <v>18913767688</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C88"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C95"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7939,7 +8083,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7954,1113 +8098,1104 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>昆山格创装饰设计工程有限公司</v>
+        <v>艺墅园装饰</v>
       </c>
       <c r="B2" t="str">
-        <v>15850301661</v>
-      </c>
-      <c r="C2" t="str">
-        <v>18662459123</v>
+        <v>15312155021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>昆山腾啸装饰工程有限公司</v>
+        <v>家庭室内外装修</v>
       </c>
       <c r="B3" t="str">
-        <v>15365330557</v>
+        <v>13584960035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>苏州宏财发建筑装饰工程有限公司</v>
+        <v>锦添翼装饰</v>
       </c>
       <c r="B4" t="str">
-        <v>13584926513</v>
+        <v>13625271050</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>苏州玉旷装饰工程有限公司</v>
+        <v>亦远设计装饰(周庄分公司)</v>
       </c>
       <c r="B5" t="str">
-        <v>18913272849</v>
-      </c>
-      <c r="C5" t="str">
-        <v>18551295669</v>
-      </c>
-      <c r="D5" t="str">
-        <v>13285100338</v>
+        <v>13585860038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>昆山淮昆钢构装饰有限公司</v>
+        <v>生远装饰设计工程有限公司</v>
       </c>
       <c r="B6" t="str">
-        <v>15716609211</v>
+        <v>18151595999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>昆山启本装饰设计工程有限公司</v>
+        <v>苏州衡道建筑装饰工程有限公司</v>
       </c>
       <c r="B7" t="str">
-        <v>13901549844</v>
+        <v>13776078498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>昆山炎楚建筑装饰工程有限公司</v>
+        <v>昆山衡昌建筑装饰工程有限公司</v>
       </c>
       <c r="B8" t="str">
-        <v>13761337475</v>
+        <v>18013286638</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>昆山二月花装饰装潢工程有限公司</v>
+        <v>丽家俊装饰</v>
       </c>
       <c r="B9" t="str">
-        <v>18012666888</v>
+        <v>15862633126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>昆山东贝展览展示有限公司</v>
+        <v>瑞廷装饰</v>
       </c>
       <c r="B10" t="str">
-        <v>13601933758</v>
+        <v>13812711324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>甲越建筑装饰</v>
+        <v>恩佐装饰</v>
       </c>
       <c r="B11" t="str">
-        <v>17312172424</v>
+        <v>18061999188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>辉奕昌装潢</v>
+        <v>格皇装饰昆山周庄分公司</v>
       </c>
       <c r="B12" t="str">
-        <v>13063752698</v>
+        <v>15366202528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>上海尊雅装饰设计有限公司</v>
+        <v>咖久装饰</v>
       </c>
       <c r="B13" t="str">
-        <v>13817512585</v>
+        <v>18962640713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>大田装饰</v>
+        <v>艾艺国际装饰</v>
       </c>
       <c r="B14" t="str">
-        <v>15262371888</v>
+        <v>15895654757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>荷典装饰</v>
+        <v>陈子设计</v>
       </c>
       <c r="B15" t="str">
-        <v>18136755269</v>
+        <v>18112632333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>易好房屋(东外滩店)</v>
+        <v>欧悦建筑装饰设计工程有限公司</v>
       </c>
       <c r="B16" t="str">
-        <v>18821258589</v>
+        <v>15370077372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>江苏金鹧鸪装饰设计有限公司</v>
+        <v>品诺装饰</v>
       </c>
       <c r="B17" t="str">
-        <v>15605165568</v>
-      </c>
-      <c r="C17" t="str">
-        <v>13851795687</v>
+        <v>15962506820</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>璟颖装饰</v>
+        <v>美涛装饰设计有限公司</v>
       </c>
       <c r="B18" t="str">
-        <v>15995612620</v>
+        <v>18261686839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>装修公司</v>
+        <v>根盛建筑装饰工程有限公司</v>
       </c>
       <c r="B19" t="str">
-        <v>13816366769</v>
+        <v>15850378461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>昆山别业居装饰有限公司</v>
+        <v>时尚装饰</v>
       </c>
       <c r="B20" t="str">
-        <v>15862645915</v>
+        <v>13338646467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1918装饰设计(柏庐店)</v>
+        <v>苏州玉旷装饰工程有限公司</v>
       </c>
       <c r="B21" t="str">
-        <v>18962641918</v>
+        <v>18913272849</v>
+      </c>
+      <c r="C21" t="str">
+        <v>18551295669</v>
+      </c>
+      <c r="D21" t="str">
+        <v>13285100338</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>简原装饰设计</v>
+        <v>昆山炎楚建筑装饰工程有限公司</v>
       </c>
       <c r="B22" t="str">
-        <v>15151665866</v>
+        <v>13761337475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>歆浩装饰</v>
+        <v>昆山二月花装饰装潢工程有限公司</v>
       </c>
       <c r="B23" t="str">
-        <v>13063757312</v>
+        <v>18012666888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>良工饰家装饰公司</v>
+        <v>昆山腾啸装饰工程有限公司</v>
       </c>
       <c r="B24" t="str">
-        <v>13776319447</v>
+        <v>15365330557</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>昆山马郑装饰有限公司</v>
+        <v>昆山启本装饰设计工程有限公司</v>
       </c>
       <c r="B25" t="str">
-        <v>13862395110</v>
+        <v>13901549844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>同济居家装饰</v>
+        <v>昆山东贝展览展示有限公司</v>
       </c>
       <c r="B26" t="str">
-        <v>13004505899</v>
+        <v>13601933758</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>上海莱可装饰设计</v>
+        <v>昆山格创装饰设计工程有限公司</v>
       </c>
       <c r="B27" t="str">
-        <v>17327077663</v>
+        <v>15850301661</v>
+      </c>
+      <c r="C27" t="str">
+        <v>18662459123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>祥林装饰(春晖路)</v>
+        <v>苏州宏财发建筑装饰工程有限公司</v>
       </c>
       <c r="B28" t="str">
-        <v>15962530899</v>
+        <v>13584926513</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>腾龙装饰</v>
+        <v>昆山淮昆钢构装饰有限公司</v>
       </c>
       <c r="B29" t="str">
-        <v>17625566788</v>
+        <v>15716609211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>仔恒装饰</v>
+        <v>甲越建筑装饰</v>
       </c>
       <c r="B30" t="str">
-        <v>18994468279</v>
+        <v>17312172424</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>根盛装饰</v>
+        <v>辉奕昌装潢</v>
       </c>
       <c r="B31" t="str">
-        <v>15850378461</v>
+        <v>13063752698</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>蜂蚂蚁装饰</v>
+        <v>上海尊雅装饰设计有限公司</v>
       </c>
       <c r="B32" t="str">
-        <v>15151600800</v>
+        <v>13817512585</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>黑蚂蚁装饰设计工程有限公司</v>
+        <v>大田装饰</v>
       </c>
       <c r="B33" t="str">
-        <v>15190188447</v>
+        <v>15262371888</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>洛克美装饰</v>
+        <v>易好房屋(东外滩店)</v>
       </c>
       <c r="B34" t="str">
-        <v>13584969818</v>
+        <v>18821258589</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>奥克装饰(千灯店)</v>
+        <v>江苏金鹧鸪装饰设计有限公司</v>
       </c>
       <c r="B35" t="str">
-        <v>15250156278</v>
+        <v>15605165568</v>
+      </c>
+      <c r="C35" t="str">
+        <v>13851795687</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>忆家装饰</v>
+        <v>昆山别业居装饰有限公司</v>
       </c>
       <c r="B36" t="str">
-        <v>18862252079</v>
+        <v>15862645915</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>上海杰座建筑装饰(花桥分公司)</v>
+        <v>荷典装饰</v>
       </c>
       <c r="B37" t="str">
-        <v>18151100099</v>
+        <v>18136755269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>上海釉川建筑装饰工程有限公司</v>
+        <v>装修公司</v>
       </c>
       <c r="B38" t="str">
-        <v>13601860680</v>
+        <v>13816366769</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>康锦装饰</v>
+        <v>璟颖装饰</v>
       </c>
       <c r="B39" t="str">
-        <v>18015537877</v>
+        <v>15995612620</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>居易美装饰</v>
+        <v>1918装饰设计(柏庐店)</v>
       </c>
       <c r="B40" t="str">
-        <v>13913286456</v>
+        <v>18962641918</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>百马树装饰设计</v>
+        <v>良工饰家装饰公司</v>
       </c>
       <c r="B41" t="str">
-        <v>18915746086</v>
+        <v>13776319447</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>江苏昆之美装饰工程有限公司</v>
+        <v>腾龙装饰</v>
       </c>
       <c r="B42" t="str">
-        <v>13773177807</v>
+        <v>17625566788</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>昆山昕创优阁装饰设计</v>
+        <v>简原装饰设计</v>
       </c>
       <c r="B43" t="str">
-        <v>15062674598</v>
+        <v>15151665866</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>星聚航装饰</v>
+        <v>歆浩装饰</v>
       </c>
       <c r="B44" t="str">
-        <v>13914999342</v>
+        <v>13063757312</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>顺鑫航建筑装饰工程有限公司</v>
+        <v>上海釉川建筑装饰工程有限公司</v>
       </c>
       <c r="B45" t="str">
-        <v>13160155566</v>
-      </c>
-      <c r="C45" t="str">
-        <v>13174102977</v>
+        <v>13601860680</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>博丽达装饰装修有限公司</v>
+        <v>祥林装饰(春晖路)</v>
       </c>
       <c r="B46" t="str">
-        <v>17715577588</v>
+        <v>15962530899</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>昆山嘉思图建筑装饰工程有限公司</v>
+        <v>仔恒装饰</v>
       </c>
       <c r="B47" t="str">
-        <v>18963676080</v>
+        <v>18994468279</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>千思装饰</v>
+        <v>上海莱可装饰设计</v>
       </c>
       <c r="B48" t="str">
-        <v>18755523788</v>
+        <v>17327077663</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>上海二比建筑装饰工程有限公司</v>
+        <v>上海杰座建筑装饰(花桥分公司)</v>
       </c>
       <c r="B49" t="str">
-        <v>13501925086</v>
+        <v>18151100099</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>上海汇点建筑装潢有限公司</v>
+        <v>昆山马郑装饰有限公司</v>
       </c>
       <c r="B50" t="str">
-        <v>18321532706</v>
+        <v>13862395110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>龙邦装饰</v>
+        <v>洛克美装饰</v>
       </c>
       <c r="B51" t="str">
-        <v>18136090977</v>
+        <v>13584969818</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>华易达装饰(太湖店)</v>
+        <v>奥克装饰(千灯店)</v>
       </c>
       <c r="B52" t="str">
-        <v>18012662749</v>
+        <v>15250156278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>昆山市天美装饰装修有限公司</v>
+        <v>黑蚂蚁装饰设计工程有限公司</v>
       </c>
       <c r="B53" t="str">
-        <v>15062675687</v>
-      </c>
-      <c r="C53" t="str">
-        <v>18914966465</v>
+        <v>15190188447</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>中科创新广场A座圣塔菲装饰设计</v>
+        <v>根盛装饰</v>
       </c>
       <c r="B54" t="str">
-        <v>18020205683</v>
+        <v>15850378461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>千灯小陆装饰装璜公司</v>
+        <v>蜂蚂蚁装饰</v>
       </c>
       <c r="B55" t="str">
-        <v>13862624349</v>
+        <v>15151600800</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>蓝钻金典装饰</v>
+        <v>康锦装饰</v>
       </c>
       <c r="B56" t="str">
-        <v>15962536976</v>
+        <v>18015537877</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>皇居装饰工程有限公司</v>
+        <v>同济居家装饰</v>
       </c>
       <c r="B57" t="str">
-        <v>15162691618</v>
+        <v>13004505899</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>昆山简生活装饰工程有限公司</v>
+        <v>忆家装饰</v>
       </c>
       <c r="B58" t="str">
-        <v>15862662800</v>
+        <v>18862252079</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>昆山创辉装饰有限公司</v>
+        <v>龙邦装饰</v>
       </c>
       <c r="B59" t="str">
-        <v>13390850885</v>
-      </c>
-      <c r="C59" t="str">
-        <v>18013259773</v>
+        <v>18136090977</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>金居装饰设计工程有限公司</v>
+        <v>居易美装饰</v>
       </c>
       <c r="B60" t="str">
-        <v>15802182592</v>
+        <v>13913286456</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>浦发装潢部</v>
+        <v>蓝钻金典装饰</v>
       </c>
       <c r="B61" t="str">
-        <v>13405158277</v>
-      </c>
-      <c r="C61" t="str">
-        <v>13862673433</v>
+        <v>15962536976</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>爱家装潢</v>
+        <v>昆山简生活装饰工程有限公司</v>
       </c>
       <c r="B62" t="str">
-        <v>18626175340</v>
+        <v>15862662800</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>意中阁装饰</v>
+        <v>百马树装饰设计</v>
       </c>
       <c r="B63" t="str">
-        <v>15312161289</v>
+        <v>18915746086</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>放馨装潢</v>
+        <v>星聚航装饰</v>
       </c>
       <c r="B64" t="str">
-        <v>13776357233</v>
+        <v>13914999342</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>伟业装潢</v>
+        <v>博丽达装饰装修有限公司</v>
       </c>
       <c r="B65" t="str">
-        <v>13812936057</v>
+        <v>17715577588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>铭鑫装潢服务部</v>
+        <v>华易达装饰(太湖店)</v>
       </c>
       <c r="B66" t="str">
-        <v>13584918391</v>
+        <v>18012662749</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>迪美装饰</v>
+        <v>皇居装饰工程有限公司</v>
       </c>
       <c r="B67" t="str">
-        <v>13773158697</v>
+        <v>15162691618</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>明居装潢</v>
+        <v>上海汇点建筑装潢有限公司</v>
       </c>
       <c r="B68" t="str">
-        <v>18913222696</v>
+        <v>18321532706</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>上海相德建筑装饰工程有限公司</v>
+        <v>顺鑫航建筑装饰工程有限公司</v>
       </c>
       <c r="B69" t="str">
-        <v>18217166879</v>
+        <v>13160155566</v>
+      </c>
+      <c r="C69" t="str">
+        <v>13174102977</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>舒星装饰设计有限公司</v>
+        <v>千思装饰</v>
       </c>
       <c r="B70" t="str">
-        <v>18662357556</v>
+        <v>18755523788</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>人民装潢</v>
+        <v>江苏昆之美装饰工程有限公司</v>
       </c>
       <c r="B71" t="str">
-        <v>13776360566</v>
+        <v>13773177807</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>恒杰装潢</v>
+        <v>昆山市天美装饰装修有限公司</v>
       </c>
       <c r="B72" t="str">
-        <v>18952683859</v>
+        <v>15062675687</v>
+      </c>
+      <c r="C72" t="str">
+        <v>18914966465</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>视典设计</v>
+        <v>千灯小陆装饰装璜公司</v>
       </c>
       <c r="B73" t="str">
-        <v>13511620400</v>
+        <v>13862624349</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>丞宁居房屋(康城花园店)</v>
+        <v>中科创新广场A座圣塔菲装饰设计</v>
       </c>
       <c r="B74" t="str">
-        <v>15150337838</v>
+        <v>18020205683</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>东驰装饰</v>
+        <v>昆山嘉思图建筑装饰工程有限公司</v>
       </c>
       <c r="B75" t="str">
-        <v>13328059227</v>
+        <v>18963676080</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>新艺装潢</v>
+        <v>昆山昕创优阁装饰设计</v>
       </c>
       <c r="B76" t="str">
-        <v>15151618026</v>
+        <v>15062674598</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>邦友装饰(湖亭东路)</v>
+        <v>上海二比建筑装饰工程有限公司</v>
       </c>
       <c r="B77" t="str">
-        <v>13621551918</v>
+        <v>13501925086</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>上海居云建筑装潢工程有限公司(花桥店)</v>
+        <v>人民装潢</v>
       </c>
       <c r="B78" t="str">
-        <v>15800846920</v>
+        <v>13776360566</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>古今装饰</v>
+        <v>恒杰装潢</v>
       </c>
       <c r="B79" t="str">
-        <v>15250270079</v>
+        <v>18952683859</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>权氏建筑装饰</v>
+        <v>新艺装潢</v>
       </c>
       <c r="B80" t="str">
-        <v>15335270567</v>
+        <v>15151618026</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>上海迪际装饰</v>
+        <v>迪美装饰</v>
       </c>
       <c r="B81" t="str">
-        <v>15618899923</v>
+        <v>13773158697</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>宏盛装饰</v>
+        <v>金居装饰设计工程有限公司</v>
       </c>
       <c r="B82" t="str">
-        <v>13952458372</v>
+        <v>15802182592</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>金苏泰装潢</v>
+        <v>舒星装饰设计有限公司</v>
       </c>
       <c r="B83" t="str">
-        <v>13914439234</v>
+        <v>18662357556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>华联装饰(市后街)</v>
+        <v>丞宁居房屋(康城花园店)</v>
       </c>
       <c r="B84" t="str">
-        <v>18706265063</v>
+        <v>15150337838</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>九五快速装修</v>
+        <v>邦友装饰(湖亭东路)</v>
       </c>
       <c r="B85" t="str">
-        <v>18796801115</v>
+        <v>13621551918</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>昆山先和室内装潢有限公司</v>
+        <v>东驰装饰</v>
       </c>
       <c r="B86" t="str">
-        <v>15151603029</v>
+        <v>13328059227</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>明捷建筑装饰</v>
+        <v>昆山创辉装饰有限公司</v>
       </c>
       <c r="B87" t="str">
-        <v>13776331107</v>
+        <v>13390850885</v>
       </c>
       <c r="C87" t="str">
-        <v>13962000928</v>
+        <v>18013259773</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>博威装饰设计工程有限公司</v>
+        <v>视典设计</v>
       </c>
       <c r="B88" t="str">
-        <v>18914990898</v>
+        <v>13511620400</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>上海昆汀装饰</v>
+        <v>意中阁装饰</v>
       </c>
       <c r="B89" t="str">
-        <v>13817668532</v>
+        <v>15312161289</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>博典装饰</v>
+        <v>上海相德建筑装饰工程有限公司</v>
       </c>
       <c r="B90" t="str">
-        <v>18036115670</v>
+        <v>18217166879</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>啊龙装饰</v>
+        <v>明居装潢</v>
       </c>
       <c r="B91" t="str">
-        <v>18921978666</v>
+        <v>18913222696</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>苏州我们整体软装设计有限公司</v>
+        <v>铭鑫装潢服务部</v>
       </c>
       <c r="B92" t="str">
-        <v>18112632333</v>
+        <v>13584918391</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>完美装潢</v>
+        <v>伟业装潢</v>
       </c>
       <c r="B93" t="str">
-        <v>15950196609</v>
+        <v>13812936057</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>臣奕品装饰设计集团</v>
+        <v>放馨装潢</v>
       </c>
       <c r="B94" t="str">
-        <v>18962680899</v>
+        <v>13776357233</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>万安装饰</v>
+        <v>古今装饰</v>
       </c>
       <c r="B95" t="str">
-        <v>15962674815</v>
+        <v>15250270079</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>三一五装饰</v>
+        <v>浦发装潢部</v>
       </c>
       <c r="B96" t="str">
-        <v>15962203256</v>
+        <v>13405158277</v>
+      </c>
+      <c r="C96" t="str">
+        <v>13862673433</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>昆山亚之翔装饰工程部</v>
+        <v>爱家装潢</v>
       </c>
       <c r="B97" t="str">
-        <v>15951131691</v>
+        <v>18626175340</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>艾瑞居装饰设计工程有限公司</v>
+        <v>上海居云建筑装潢工程有限公司(花桥店)</v>
       </c>
       <c r="B98" t="str">
-        <v>15995606162</v>
+        <v>15800846920</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>宏浦装潢</v>
+        <v>金苏泰装潢</v>
       </c>
       <c r="B99" t="str">
-        <v>13773167861</v>
+        <v>13914439234</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>铭品装饰设计工程有限公司(金浦路)</v>
+        <v>昆山先和室内装潢有限公司</v>
       </c>
       <c r="B100" t="str">
-        <v>15370754558</v>
+        <v>15151603029</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>民旺装潢有限公司</v>
+        <v>博威装饰设计工程有限公司</v>
       </c>
       <c r="B101" t="str">
-        <v>13013753068</v>
+        <v>18914990898</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>朗艺装饰</v>
+        <v>上海迪际装饰</v>
       </c>
       <c r="B102" t="str">
-        <v>18915736325</v>
+        <v>15618899923</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>柏艺装饰</v>
+        <v>博典装饰</v>
       </c>
       <c r="B103" t="str">
-        <v>18168277900</v>
+        <v>18036115670</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>金裕装饰</v>
+        <v>宏盛装饰</v>
       </c>
       <c r="B104" t="str">
-        <v>15862666096</v>
+        <v>13952458372</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>昆山瑞鼎装饰工程有限公司</v>
+        <v>九五快速装修</v>
       </c>
       <c r="B105" t="str">
-        <v>13913286155</v>
+        <v>18796801115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>众发窗帘</v>
+        <v>华联装饰(市后街)</v>
       </c>
       <c r="B106" t="str">
-        <v>13063856067</v>
+        <v>18706265063</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>健娅橱柜移门淋浴房</v>
+        <v>上海昆汀装饰</v>
       </c>
       <c r="B107" t="str">
-        <v>15850361001</v>
-      </c>
-      <c r="C107" t="str">
-        <v>15051601402</v>
+        <v>13817668532</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>明鼎装饰设计</v>
+        <v>权氏建筑装饰</v>
       </c>
       <c r="B108" t="str">
-        <v>13584850963</v>
+        <v>15335270567</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>上海福耀金属装饰工程有限公司</v>
+        <v>明捷建筑装饰</v>
       </c>
       <c r="B109" t="str">
-        <v>15900929156</v>
+        <v>13776331107</v>
+      </c>
+      <c r="C109" t="str">
+        <v>13962000928</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>苏州阳丽建筑装饰</v>
+        <v>民旺装潢有限公司</v>
       </c>
       <c r="B110" t="str">
-        <v>15962654488</v>
+        <v>13013753068</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>江南装潢部(光夏路)</v>
+        <v>上海福耀金属装饰工程有限公司</v>
       </c>
       <c r="B111" t="str">
-        <v>13776340289</v>
+        <v>15900929156</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>超创装潢(富荣路)</v>
+        <v>铭品装饰设计工程有限公司(金浦路)</v>
       </c>
       <c r="B112" t="str">
-        <v>13812943384</v>
+        <v>15370754558</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>景善装潢</v>
+        <v>江南装潢部(光夏路)</v>
       </c>
       <c r="B113" t="str">
-        <v>13584963193</v>
+        <v>13776340289</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>希鸿装潢(昆山)有限公司</v>
+        <v>完美装潢</v>
       </c>
       <c r="B114" t="str">
-        <v>18672523959</v>
+        <v>15950196609</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>艺墅佳人装饰(昆山分公司)</v>
+        <v>明鼎装饰设计</v>
       </c>
       <c r="B115" t="str">
-        <v>18068050851</v>
+        <v>13584850963</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>交换空间设计装饰</v>
+        <v>艾瑞居装饰设计工程有限公司</v>
       </c>
       <c r="B116" t="str">
-        <v>15106269801</v>
+        <v>15995606162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>兴浦装潢</v>
+        <v>万安装饰</v>
       </c>
       <c r="B117" t="str">
-        <v>13218152906</v>
+        <v>15962674815</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>得佑装饰花桥旗舰店</v>
+        <v>健娅橱柜移门淋浴房</v>
       </c>
       <c r="B118" t="str">
-        <v>13917756532</v>
+        <v>15850361001</v>
+      </c>
+      <c r="C118" t="str">
+        <v>15051601402</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>黔力装饰</v>
+        <v>柏艺装饰</v>
       </c>
       <c r="B119" t="str">
-        <v>13816531388</v>
+        <v>18168277900</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>优居壹品装饰</v>
+        <v>臣奕品装饰设计集团</v>
       </c>
       <c r="B120" t="str">
-        <v>15950183003</v>
+        <v>18962680899</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>新创装饰(新吴街店)</v>
+        <v>啊龙装饰</v>
       </c>
       <c r="B121" t="str">
-        <v>13405163505</v>
-      </c>
-      <c r="C121" t="str">
-        <v>15190123107</v>
+        <v>18921978666</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>苏州森尼装饰工程有限公司</v>
+        <v>宏浦装潢</v>
       </c>
       <c r="B122" t="str">
-        <v>17721050523</v>
+        <v>13773167861</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>宜家装饰工程公司</v>
+        <v>昆山亚之翔装饰工程部</v>
       </c>
       <c r="B123" t="str">
-        <v>13913278820</v>
+        <v>15951131691</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>兰亭居装饰工程有限公司</v>
+        <v>金裕装饰</v>
       </c>
       <c r="B124" t="str">
-        <v>18912656276</v>
+        <v>15862666096</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>宏伟装饰装潢部</v>
+        <v>三一五装饰</v>
       </c>
       <c r="B125" t="str">
-        <v>13862624509</v>
+        <v>15962203256</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>鑫凯居装饰工程有限公司</v>
+        <v>昆山瑞鼎装饰工程有限公司</v>
       </c>
       <c r="B126" t="str">
-        <v>15150335338</v>
-      </c>
-      <c r="C126" t="str">
-        <v>18913211141</v>
+        <v>13913286155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>布朗装饰设计工程有限公司</v>
+        <v>朗艺装饰</v>
       </c>
       <c r="B127" t="str">
-        <v>15895552711</v>
+        <v>18915736325</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>九品装饰</v>
+        <v>苏州我们整体软装设计有限公司</v>
       </c>
       <c r="B128" t="str">
-        <v>13771897725</v>
+        <v>18112632333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>上海云耀装饰工程有限公司</v>
+        <v>苏州阳丽建筑装饰</v>
       </c>
       <c r="B129" t="str">
-        <v>18915733178</v>
+        <v>15962654488</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>鼎圣居装饰工程有限公司</v>
+        <v>众发窗帘</v>
       </c>
       <c r="B130" t="str">
-        <v>18550441563</v>
+        <v>13063856067</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>百事吉装饰工程有限公司</v>
+        <v>得佑装饰花桥旗舰店</v>
       </c>
       <c r="B131" t="str">
-        <v>15358839575</v>
+        <v>13917756532</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>福精特金属装饰工程有限公司</v>
+        <v>宏伟装饰装潢部</v>
       </c>
       <c r="B132" t="str">
-        <v>13912682599</v>
-      </c>
-      <c r="C132" t="str">
-        <v>13151657199</v>
+        <v>13862624509</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>红杨装潢</v>
+        <v>宜家装饰工程公司</v>
       </c>
       <c r="B133" t="str">
-        <v>15995624549</v>
+        <v>13913278820</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>皇家壹品装饰</v>
+        <v>上海云耀装饰工程有限公司</v>
       </c>
       <c r="B134" t="str">
-        <v>18013145200</v>
+        <v>18915733178</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>意宏装潢</v>
+        <v>超创装潢(富荣路)</v>
       </c>
       <c r="B135" t="str">
-        <v>18012666527</v>
+        <v>13812943384</v>
       </c>
     </row>
     <row r="136">
@@ -9073,405 +9208,405 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>昆山飞越装饰工程有限公司</v>
+        <v>苏州森尼装饰工程有限公司</v>
       </c>
       <c r="B137" t="str">
-        <v>13390872144</v>
+        <v>17721050523</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>小宋装潢</v>
+        <v>交换空间设计装饰</v>
       </c>
       <c r="B138" t="str">
-        <v>13912674251</v>
-      </c>
-      <c r="C138" t="str">
-        <v>15850358172</v>
+        <v>15106269801</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>居然美装饰工程有限公司</v>
+        <v>黔力装饰</v>
       </c>
       <c r="B139" t="str">
-        <v>18912663785</v>
+        <v>13816531388</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>乐业安居装饰</v>
+        <v>新创装饰(新吴街店)</v>
       </c>
       <c r="B140" t="str">
-        <v>18913212989</v>
+        <v>13405163505</v>
+      </c>
+      <c r="C140" t="str">
+        <v>15190123107</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>万家装潢</v>
+        <v>兴浦装潢</v>
       </c>
       <c r="B141" t="str">
-        <v>15962618607</v>
-      </c>
-      <c r="C141" t="str">
-        <v>15950174217</v>
+        <v>13218152906</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>麒麟装潢</v>
+        <v>希鸿装潢(昆山)有限公司</v>
       </c>
       <c r="B142" t="str">
-        <v>15162301699</v>
+        <v>18672523959</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>金圆方装饰</v>
+        <v>鼎圣居装饰工程有限公司</v>
       </c>
       <c r="B143" t="str">
-        <v>13773149780</v>
+        <v>18550441563</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>美嘉鑫装修</v>
+        <v>意宏装潢</v>
       </c>
       <c r="B144" t="str">
-        <v>15162699276</v>
+        <v>18012666527</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>昆山建铠装饰工程公司</v>
+        <v>兰亭居装饰工程有限公司</v>
       </c>
       <c r="B145" t="str">
-        <v>13606266411</v>
+        <v>18912656276</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>顺发装潢(南汛塘岸)</v>
+        <v>九品装饰</v>
       </c>
       <c r="B146" t="str">
-        <v>13141859927</v>
-      </c>
-      <c r="C146" t="str">
-        <v>13141859527</v>
+        <v>13771897725</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>昆山启发装饰设计工程有限公司</v>
+        <v>福精特金属装饰工程有限公司</v>
       </c>
       <c r="B147" t="str">
-        <v>13611975587</v>
+        <v>13912682599</v>
+      </c>
+      <c r="C147" t="str">
+        <v>13151657199</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>天然居装饰</v>
+        <v>艺墅佳人装饰(昆山分公司)</v>
       </c>
       <c r="B148" t="str">
-        <v>13511627309</v>
+        <v>18068050851</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>东成装饰</v>
+        <v>红杨装潢</v>
       </c>
       <c r="B149" t="str">
-        <v>13706269545</v>
-      </c>
-      <c r="C149" t="str">
-        <v>15995629979</v>
+        <v>15995624549</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>陈氏装潢</v>
+        <v>居然美装饰工程有限公司</v>
       </c>
       <c r="B150" t="str">
-        <v>13913258980</v>
+        <v>18912663785</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>上海创典装饰</v>
+        <v>百事吉装饰工程有限公司</v>
       </c>
       <c r="B151" t="str">
-        <v>13052855188</v>
+        <v>15358839575</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>统亚装饰</v>
+        <v>小宋装潢</v>
       </c>
       <c r="B152" t="str">
-        <v>15951127958</v>
+        <v>13912674251</v>
+      </c>
+      <c r="C152" t="str">
+        <v>15850358172</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>昆山久特装饰设计工程有限公司</v>
+        <v>皇家壹品装饰</v>
       </c>
       <c r="B153" t="str">
-        <v>13004557303</v>
-      </c>
-      <c r="C153" t="str">
-        <v>13621928457</v>
+        <v>18013145200</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>尚馨装饰</v>
+        <v>昆山飞越装饰工程有限公司</v>
       </c>
       <c r="B154" t="str">
-        <v>13816363685</v>
+        <v>13390872144</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>1986装饰工程有限公司</v>
+        <v>优居壹品装饰</v>
       </c>
       <c r="B155" t="str">
-        <v>13862080895</v>
+        <v>15950183003</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>沐木装饰</v>
+        <v>布朗装饰设计工程有限公司</v>
       </c>
       <c r="B156" t="str">
-        <v>18994465683</v>
+        <v>15895552711</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>巧工装饰设计</v>
+        <v>鑫凯居装饰工程有限公司</v>
       </c>
       <c r="B157" t="str">
-        <v>15962637221</v>
+        <v>15150335338</v>
+      </c>
+      <c r="C157" t="str">
+        <v>18913211141</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>鸿皇装饰</v>
+        <v>乐业安居装饰</v>
       </c>
       <c r="B158" t="str">
-        <v>15862666950</v>
+        <v>18913212989</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>昆巧装饰</v>
+        <v>景善装潢</v>
       </c>
       <c r="B159" t="str">
-        <v>18114647987</v>
-      </c>
-      <c r="C159" t="str">
-        <v>18721989892</v>
+        <v>13584963193</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>后贵建筑装饰有限公司</v>
+        <v>陈氏装潢</v>
       </c>
       <c r="B160" t="str">
-        <v>17312675890</v>
+        <v>13913258980</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>川朋装饰(上海)</v>
+        <v>万家装潢</v>
       </c>
       <c r="B161" t="str">
-        <v>15962528802</v>
+        <v>15962618607</v>
+      </c>
+      <c r="C161" t="str">
+        <v>15950174217</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>新尊府装饰</v>
+        <v>麒麟装潢</v>
       </c>
       <c r="B162" t="str">
-        <v>15370755680</v>
+        <v>15162301699</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>欣美装饰</v>
+        <v>昆巧装饰</v>
       </c>
       <c r="B163" t="str">
-        <v>15950938812</v>
+        <v>18114647987</v>
+      </c>
+      <c r="C163" t="str">
+        <v>18721989892</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>昆山市生辉装饰工程有限公司</v>
+        <v>巧工装饰设计</v>
       </c>
       <c r="B164" t="str">
-        <v>13962426218</v>
+        <v>15962637221</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>云水涧装饰</v>
+        <v>1986装饰工程有限公司</v>
       </c>
       <c r="B165" t="str">
-        <v>15051697961</v>
+        <v>13862080895</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>昆山顺茂装饰工程有限公司</v>
+        <v>天然居装饰</v>
       </c>
       <c r="B166" t="str">
-        <v>13812898267</v>
-      </c>
-      <c r="C166" t="str">
-        <v>18013254076</v>
+        <v>13511627309</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>昆山市星设计装饰工程有限公司</v>
+        <v>昆山建铠装饰工程公司</v>
       </c>
       <c r="B167" t="str">
-        <v>13671816061</v>
+        <v>13606266411</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>蓝钻金典装饰工程有限公司(港龙·喜临门建材家居广场)</v>
+        <v>美嘉鑫装修</v>
       </c>
       <c r="B168" t="str">
-        <v>15152041387</v>
+        <v>15162699276</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>昆山巨鼎装饰工程有限公司</v>
+        <v>统亚装饰</v>
       </c>
       <c r="B169" t="str">
-        <v>13912668925</v>
+        <v>15951127958</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>华邦装饰</v>
+        <v>金圆方装饰</v>
       </c>
       <c r="B170" t="str">
-        <v>15250267637</v>
+        <v>13773149780</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>昆山勋硕建筑装饰工程有限公司</v>
+        <v>昆山启发装饰设计工程有限公司</v>
       </c>
       <c r="B171" t="str">
-        <v>18862696686</v>
+        <v>13611975587</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>海韵装饰</v>
+        <v>顺发装潢(南汛塘岸)</v>
       </c>
       <c r="B172" t="str">
-        <v>18068072316</v>
+        <v>13141859927</v>
+      </c>
+      <c r="C172" t="str">
+        <v>13141859527</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>大尧装饰设计工程有限公司</v>
+        <v>昆山久特装饰设计工程有限公司</v>
       </c>
       <c r="B173" t="str">
-        <v>15895644174</v>
+        <v>13004557303</v>
       </c>
       <c r="C173" t="str">
-        <v>15862653413</v>
+        <v>13621928457</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>叶氏装饰</v>
+        <v>东成装饰</v>
       </c>
       <c r="B174" t="str">
-        <v>15062617039</v>
+        <v>13706269545</v>
+      </c>
+      <c r="C174" t="str">
+        <v>15995629979</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>康庭装饰(樾河北路)</v>
+        <v>鸿皇装饰</v>
       </c>
       <c r="B175" t="str">
-        <v>15962404337</v>
+        <v>15862666950</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>大咖装饰工程有限公司</v>
+        <v>沐木装饰</v>
       </c>
       <c r="B176" t="str">
-        <v>18118177022</v>
+        <v>18994465683</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>众杰装饰(张浦店)</v>
+        <v>尚馨装饰</v>
       </c>
       <c r="B177" t="str">
-        <v>15895658591</v>
+        <v>13816363685</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>朗通装饰</v>
+        <v>上海创典装饰</v>
       </c>
       <c r="B178" t="str">
-        <v>13218159077</v>
+        <v>13052855188</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>天风装饰</v>
+        <v>昆山昆凯装潢工程有限公司</v>
       </c>
       <c r="B179" t="str">
-        <v>15050270257</v>
+        <v>18914992339</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>诚信装潢部</v>
+        <v>蓝钻金典装饰工程有限公司(港龙·喜临门建材家居广场)</v>
       </c>
       <c r="B180" t="str">
-        <v>15150485646</v>
-      </c>
-      <c r="C180" t="str">
-        <v>15371471766</v>
+        <v>15152041387</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>蛮好德装饰</v>
+        <v>大咖装饰工程有限公司</v>
       </c>
       <c r="B181" t="str">
-        <v>13915735330</v>
+        <v>18118177022</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>昆山昆凯装潢工程有限公司</v>
+        <v>康庭装饰(樾河北路)</v>
       </c>
       <c r="B182" t="str">
-        <v>18914992339</v>
+        <v>15962404337</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>乐天装饰(晨丰路)</v>
+        <v>昆山巨鼎装饰工程有限公司</v>
       </c>
       <c r="B183" t="str">
-        <v>15162635782</v>
+        <v>13912668925</v>
       </c>
     </row>
     <row r="184">
@@ -9484,461 +9619,622 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>创意空间装饰</v>
+        <v>后贵建筑装饰有限公司</v>
       </c>
       <c r="B185" t="str">
-        <v>13405123477</v>
+        <v>17312675890</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>欧尚装饰</v>
+        <v>海韵装饰</v>
       </c>
       <c r="B186" t="str">
-        <v>15162603860</v>
+        <v>18068072316</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>辰旸八号装饰设计</v>
+        <v>昆山勋硕建筑装饰工程有限公司</v>
       </c>
       <c r="B187" t="str">
-        <v>15051690732</v>
+        <v>18862696686</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>创新装饰工程</v>
+        <v>华邦装饰</v>
       </c>
       <c r="B188" t="str">
-        <v>13915496837</v>
-      </c>
-      <c r="C188" t="str">
-        <v>15862664839</v>
+        <v>15250267637</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>翌金元装饰·设计</v>
+        <v>辰旸八号装饰设计</v>
       </c>
       <c r="B189" t="str">
-        <v>18601428081</v>
+        <v>15051690732</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>苏州粤宝装饰工程有限公司</v>
+        <v>翌金元装饰·设计</v>
       </c>
       <c r="B190" t="str">
-        <v>18012659992</v>
+        <v>18601428081</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>铭业森装饰工程有限公司</v>
+        <v>众杰装饰(张浦店)</v>
       </c>
       <c r="B191" t="str">
-        <v>13776318198</v>
-      </c>
-      <c r="C191" t="str">
-        <v>13390854678</v>
+        <v>15895658591</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>昆山格创装饰·设计工程有限公司</v>
+        <v>昆山顺茂装饰工程有限公司</v>
       </c>
       <c r="B192" t="str">
-        <v>13913258660</v>
+        <v>13812898267</v>
+      </c>
+      <c r="C192" t="str">
+        <v>18013254076</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>汇巨装饰</v>
+        <v>昆山市生辉装饰工程有限公司</v>
       </c>
       <c r="B193" t="str">
-        <v>13915742255</v>
+        <v>13962426218</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>昆山市学华不锈钢材料经销处</v>
+        <v>欣美装饰</v>
       </c>
       <c r="B194" t="str">
-        <v>13656262019</v>
+        <v>15950938812</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>乐尚装饰</v>
+        <v>新尊府装饰</v>
       </c>
       <c r="B195" t="str">
-        <v>13338646467</v>
+        <v>15370755680</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>金匠艺装饰</v>
+        <v>川朋装饰(上海)</v>
       </c>
       <c r="B196" t="str">
-        <v>15250586816</v>
-      </c>
-      <c r="C196" t="str">
-        <v>17372675776</v>
+        <v>15962528802</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>邓楷建筑装饰设计有限公司</v>
+        <v>朗通装饰</v>
       </c>
       <c r="B197" t="str">
-        <v>15962641477</v>
+        <v>13218159077</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>云荣装饰</v>
+        <v>创新装饰工程</v>
       </c>
       <c r="B198" t="str">
-        <v>13218152979</v>
+        <v>13915496837</v>
+      </c>
+      <c r="C198" t="str">
+        <v>15862664839</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>雨蝶装潢</v>
+        <v>云水涧装饰</v>
       </c>
       <c r="B199" t="str">
-        <v>15370762739</v>
+        <v>15051697961</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>昆山市玉山镇颖昆门窗销售部</v>
+        <v>叶氏装饰</v>
       </c>
       <c r="B200" t="str">
-        <v>18913245345</v>
+        <v>15062617039</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>鼎佳焊接装潢部</v>
+        <v>欧尚装饰</v>
       </c>
       <c r="B201" t="str">
-        <v>18913211577</v>
+        <v>15162603860</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>春江满庭装潢</v>
+        <v>昆山市星设计装饰工程有限公司</v>
       </c>
       <c r="B202" t="str">
-        <v>18068056968</v>
+        <v>13671816061</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>修枝装饰(玫瑰湾店)</v>
+        <v>乐天装饰(晨丰路)</v>
       </c>
       <c r="B203" t="str">
-        <v>15298869289</v>
-      </c>
-      <c r="C203" t="str">
-        <v>15190112976</v>
+        <v>15162635782</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>欧典名筑装饰</v>
+        <v>蛮好德装饰</v>
       </c>
       <c r="B204" t="str">
-        <v>18068085475</v>
+        <v>13915735330</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>新风装饰设计</v>
+        <v>诚信装潢部</v>
       </c>
       <c r="B205" t="str">
-        <v>15250155657</v>
+        <v>15150485646</v>
+      </c>
+      <c r="C205" t="str">
+        <v>15371471766</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>徽鹿之星建筑装饰工程(苏州)有限公司</v>
+        <v>创意空间装饰</v>
       </c>
       <c r="B206" t="str">
-        <v>15506298866</v>
+        <v>13405123477</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>悦享装饰</v>
+        <v>大尧装饰设计工程有限公司</v>
       </c>
       <c r="B207" t="str">
-        <v>18136773988</v>
+        <v>15895644174</v>
+      </c>
+      <c r="C207" t="str">
+        <v>15862653413</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>瑞登装饰工程有限公司</v>
+        <v>天风装饰</v>
       </c>
       <c r="B208" t="str">
-        <v>15162636418</v>
-      </c>
-      <c r="C208" t="str">
-        <v>15862646419</v>
+        <v>15050270257</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>欧唐装饰工程有限公司</v>
+        <v>博洲装饰</v>
       </c>
       <c r="B209" t="str">
-        <v>18912666990</v>
+        <v>13405177601</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>东洪装饰</v>
+        <v>徽鹿之星建筑装饰工程(苏州)有限公司</v>
       </c>
       <c r="B210" t="str">
-        <v>15062662593</v>
+        <v>15506298866</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>华丽装饰工程有限公司</v>
+        <v>邓楷建筑装饰设计有限公司</v>
       </c>
       <c r="B211" t="str">
-        <v>13951183168</v>
+        <v>15962641477</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>博洲装饰</v>
+        <v>金匠艺装饰</v>
       </c>
       <c r="B212" t="str">
-        <v>13405177601</v>
+        <v>15250586816</v>
+      </c>
+      <c r="C212" t="str">
+        <v>17372675776</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>美尚美装饰</v>
+        <v>乐尚装饰</v>
       </c>
       <c r="B213" t="str">
-        <v>15106281703</v>
-      </c>
-      <c r="C213" t="str">
-        <v>18112837767</v>
+        <v>13338646467</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>苏州第九空间建筑装饰工程有限公司</v>
+        <v>云荣装饰</v>
       </c>
       <c r="B214" t="str">
-        <v>13862327666</v>
+        <v>13218152979</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>丰杰装饰有限公司</v>
+        <v>昆山市玉山镇颖昆门窗销售部</v>
       </c>
       <c r="B215" t="str">
-        <v>18913205184</v>
+        <v>18913245345</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>老宋装修</v>
+        <v>铭业森装饰工程有限公司</v>
       </c>
       <c r="B216" t="str">
-        <v>13451761611</v>
+        <v>13776318198</v>
+      </c>
+      <c r="C216" t="str">
+        <v>13390854678</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>坤筑装饰</v>
+        <v>汇巨装饰</v>
       </c>
       <c r="B217" t="str">
-        <v>18117522312</v>
+        <v>13915742255</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>旺角设计</v>
+        <v>鼎佳焊接装潢部</v>
       </c>
       <c r="B218" t="str">
-        <v>13771882077</v>
+        <v>18913211577</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>沪利装潢</v>
+        <v>雨蝶装潢</v>
       </c>
       <c r="B219" t="str">
-        <v>13812873481</v>
+        <v>15370762739</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>兴达装饰(柏庐北路)</v>
+        <v>悦享装饰</v>
       </c>
       <c r="B220" t="str">
-        <v>13405676346</v>
+        <v>18136773988</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>鸿运装饰(花园路)</v>
+        <v>欧唐装饰工程有限公司</v>
       </c>
       <c r="B221" t="str">
-        <v>15062617026</v>
-      </c>
-      <c r="C221" t="str">
-        <v>18662547749</v>
+        <v>18912666990</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>鸿星装饰</v>
+        <v>瑞登装饰工程有限公司</v>
       </c>
       <c r="B222" t="str">
-        <v>13862663887</v>
+        <v>15162636418</v>
+      </c>
+      <c r="C222" t="str">
+        <v>15862646419</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>新晨装潢公司</v>
+        <v>昆山格创装饰·设计工程有限公司</v>
       </c>
       <c r="B223" t="str">
-        <v>18662671556</v>
+        <v>13913258660</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>昆山桂隆装饰有限公司</v>
+        <v>修枝装饰(玫瑰湾店)</v>
       </c>
       <c r="B224" t="str">
-        <v>13962481626</v>
+        <v>15298869289</v>
+      </c>
+      <c r="C224" t="str">
+        <v>15190112976</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>居鹏装潢</v>
+        <v>苏州粤宝装饰工程有限公司</v>
       </c>
       <c r="B225" t="str">
-        <v>13584967238</v>
+        <v>18012659992</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>芳茂装饰</v>
+        <v>昆山市学华不锈钢材料经销处</v>
       </c>
       <c r="B226" t="str">
-        <v>18068075492</v>
-      </c>
-      <c r="C226" t="str">
-        <v>18058085492</v>
+        <v>13656262019</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>蓝湾装饰</v>
+        <v>春江满庭装潢</v>
       </c>
       <c r="B227" t="str">
-        <v>15151611182</v>
+        <v>18068056968</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>浦苏装潢设计</v>
+        <v>华丽装饰工程有限公司</v>
       </c>
       <c r="B228" t="str">
-        <v>18792195392</v>
+        <v>13951183168</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>家乐美装饰</v>
+        <v>东洪装饰</v>
       </c>
       <c r="B229" t="str">
-        <v>18013287584</v>
+        <v>15062662593</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>康锦装潢</v>
+        <v>欧典名筑装饰</v>
       </c>
       <c r="B230" t="str">
-        <v>13245087332</v>
+        <v>18068085475</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>居美装潢</v>
+        <v>新风装饰设计</v>
       </c>
       <c r="B231" t="str">
-        <v>15189949997</v>
+        <v>15250155657</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>昆山乐HOME数码家装体验馆</v>
+        <v>兴达装饰(柏庐北路)</v>
       </c>
       <c r="B232" t="str">
-        <v>18796859680</v>
+        <v>13405676346</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>龙翔装潢工程部</v>
+        <v>鸿星装饰</v>
       </c>
       <c r="B233" t="str">
-        <v>15062619969</v>
+        <v>13862663887</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>华宇装潢部</v>
+        <v>新晨装潢公司</v>
       </c>
       <c r="B234" t="str">
-        <v>15962502329</v>
-      </c>
-      <c r="C234" t="str">
-        <v>15190110087</v>
+        <v>18662671556</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>施·洛华装饰</v>
+        <v>沪利装潢</v>
       </c>
       <c r="B235" t="str">
-        <v>13584924808</v>
+        <v>13812873481</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>欧登金属装饰工程有限公司</v>
+        <v>苏州第九空间建筑装饰工程有限公司</v>
       </c>
       <c r="B236" t="str">
-        <v>13013852999</v>
-      </c>
-      <c r="C236" t="str">
-        <v>13013952999</v>
+        <v>13862327666</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
+        <v>坤筑装饰</v>
+      </c>
+      <c r="B237" t="str">
+        <v>18117522312</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>鸿运装饰(花园路)</v>
+      </c>
+      <c r="B238" t="str">
+        <v>15062617026</v>
+      </c>
+      <c r="C238" t="str">
+        <v>18662547749</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>施·洛华装饰</v>
+      </c>
+      <c r="B239" t="str">
+        <v>13584924808</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>蓝湾装饰</v>
+      </c>
+      <c r="B240" t="str">
+        <v>15151611182</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>昆山桂隆装饰有限公司</v>
+      </c>
+      <c r="B241" t="str">
+        <v>13962481626</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
         <v>恒久远装饰公司</v>
       </c>
-      <c r="B237" t="str">
+      <c r="B242" t="str">
         <v>15995666085</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>旺角设计</v>
+      </c>
+      <c r="B243" t="str">
+        <v>13771882077</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>家乐美装饰</v>
+      </c>
+      <c r="B244" t="str">
+        <v>18013287584</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>华宇装潢部</v>
+      </c>
+      <c r="B245" t="str">
+        <v>15962502329</v>
+      </c>
+      <c r="C245" t="str">
+        <v>15190110087</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>浦苏装潢设计</v>
+      </c>
+      <c r="B246" t="str">
+        <v>18792195392</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>昆山乐HOME数码家装体验馆</v>
+      </c>
+      <c r="B247" t="str">
+        <v>18796859680</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>居鹏装潢</v>
+      </c>
+      <c r="B248" t="str">
+        <v>13584967238</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>芳茂装饰</v>
+      </c>
+      <c r="B249" t="str">
+        <v>18068075492</v>
+      </c>
+      <c r="C249" t="str">
+        <v>18058085492</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>康锦装潢</v>
+      </c>
+      <c r="B250" t="str">
+        <v>13245087332</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>丰杰装饰有限公司</v>
+      </c>
+      <c r="B251" t="str">
+        <v>18913205184</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>居美装潢</v>
+      </c>
+      <c r="B252" t="str">
+        <v>15189949997</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>美尚美装饰</v>
+      </c>
+      <c r="B253" t="str">
+        <v>15106281703</v>
+      </c>
+      <c r="C253" t="str">
+        <v>18112837767</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>龙翔装潢工程部</v>
+      </c>
+      <c r="B254" t="str">
+        <v>15062619969</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>欧登金属装饰工程有限公司</v>
+      </c>
+      <c r="B255" t="str">
+        <v>13013852999</v>
+      </c>
+      <c r="C255" t="str">
+        <v>13013952999</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>老宋装修</v>
+      </c>
+      <c r="B256" t="str">
+        <v>13451761611</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D237"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D256"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10160,7 +10456,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10175,127 +10471,130 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>苏州富柏林家具股份有限公司</v>
+        <v>朝阳装饰有限公司</v>
       </c>
       <c r="B2" t="str">
-        <v>13776116048</v>
+        <v>13776221574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>苏州弘拓八方家具股份有限公司</v>
+        <v>雅阁装饰</v>
       </c>
       <c r="B3" t="str">
-        <v>15995958299</v>
+        <v>13814932654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>苏州爱玛私家具股份有限公司</v>
+        <v>兢业装饰</v>
       </c>
       <c r="B4" t="str">
-        <v>15995958299</v>
+        <v>13862328816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>常熟市佳瑞隆商贸有限公司</v>
+        <v>龙达装饰</v>
       </c>
       <c r="B5" t="str">
-        <v>18694928802</v>
+        <v>13862320350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>苏州百尚家具股份有限公司</v>
+        <v>印象水仙室内设计机构</v>
       </c>
       <c r="B6" t="str">
-        <v>13815258364</v>
+        <v>18018176999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>苏州朗悦湾家具股份有限公司</v>
+        <v>天艺装饰</v>
       </c>
       <c r="B7" t="str">
-        <v>15995486386</v>
+        <v>13913699476</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>苏州含蕊家具股份有限公司</v>
+        <v>上品家装饰有限公司</v>
       </c>
       <c r="B8" t="str">
-        <v>13862407828</v>
+        <v>18151575868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>苏州铭冠欧爵家具股份有限公司</v>
+        <v>永杰装饰</v>
       </c>
       <c r="B9" t="str">
-        <v>18806204020</v>
+        <v>13962307771</v>
+      </c>
+      <c r="C9" t="str">
+        <v>15606238883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>苏州国文利贸易有限公司</v>
+        <v>常熟平辉建筑装饰工程有限公司</v>
       </c>
       <c r="B10" t="str">
-        <v>13913634390</v>
+        <v>13862300320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>常熟市虞杭家具有限公司</v>
+        <v>荣耀饰家装饰工程有限公司</v>
       </c>
       <c r="B11" t="str">
-        <v>13182690823</v>
+        <v>13328027896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>苏州铮源环境工程有限公司</v>
+        <v>乐佳尔装饰</v>
       </c>
       <c r="B12" t="str">
-        <v>13914922333</v>
+        <v>13913664473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>苏州叶檀家具股份有限公司</v>
+        <v>常熟引领原创设计工作室</v>
       </c>
       <c r="B13" t="str">
-        <v>13646208628</v>
+        <v>18550775777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>苏州斯帝凯奇家具股份有限公司</v>
+        <v>爱尚家装</v>
       </c>
       <c r="B14" t="str">
-        <v>13706205867</v>
+        <v>18915602560</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>苏州豪菲爵家具股份有限公司</v>
+        <v>龙视觉设计</v>
       </c>
       <c r="B15" t="str">
-        <v>13812770110</v>
+        <v>17751135826</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>江苏美漫庄园家具股份有限公司</v>
+        <v>苏州富柏林家具股份有限公司</v>
       </c>
       <c r="B16" t="str">
-        <v>15995958299</v>
+        <v>13776116048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>苏州安铭居家具股份有限公司</v>
+        <v>苏州弘拓八方家具股份有限公司</v>
       </c>
       <c r="B17" t="str">
         <v>15995958299</v>
@@ -10303,1101 +10602,1213 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>苏州昊品轩家具股份有限公司</v>
+        <v>常熟市佳瑞隆商贸有限公司</v>
       </c>
       <c r="B18" t="str">
-        <v>13771991209</v>
+        <v>18694928802</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>苏州豪美艺鑫家具股份有限公司</v>
+        <v>苏州昊品轩家具股份有限公司</v>
       </c>
       <c r="B19" t="str">
-        <v>18912646831</v>
+        <v>13771991209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>苏州龙兴阁家具股份有限公司</v>
+        <v>苏州百尚家具股份有限公司</v>
       </c>
       <c r="B20" t="str">
-        <v>15995958299</v>
+        <v>13815258364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>江苏正东家居股份有限公司</v>
+        <v>苏州朗悦湾家具股份有限公司</v>
       </c>
       <c r="B21" t="str">
-        <v>15850061155</v>
+        <v>15995486386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>苏州鑫威利家具股份有限公司</v>
+        <v>苏州含蕊家具股份有限公司</v>
       </c>
       <c r="B22" t="str">
-        <v>18936147200</v>
+        <v>13862407828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>苏州佐佐木家具股份有限公司</v>
+        <v>苏州铭冠欧爵家具股份有限公司</v>
       </c>
       <c r="B23" t="str">
-        <v>15851405287</v>
+        <v>18806204020</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>苏州连福堂家具股份有限公司</v>
+        <v>苏州斯帝凯奇家具股份有限公司</v>
       </c>
       <c r="B24" t="str">
-        <v>15995958299</v>
+        <v>13706205867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>苏州雪蒂斯家具股份有限公司</v>
+        <v>常熟市虞杭家具有限公司</v>
       </c>
       <c r="B25" t="str">
-        <v>15862425016</v>
+        <v>13182690823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>苏州川盛家具股份有限公司</v>
+        <v>苏州铮源环境工程有限公司</v>
       </c>
       <c r="B26" t="str">
-        <v>13706203196</v>
+        <v>13914922333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>苏州市顺隆昌家具股份有限公司</v>
+        <v>苏州爱玛私家具股份有限公司</v>
       </c>
       <c r="B27" t="str">
-        <v>13306231418</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>苏州汉居林家具股份有限公司</v>
+        <v>苏州叶檀家具股份有限公司</v>
       </c>
       <c r="B28" t="str">
-        <v>13912647294</v>
+        <v>13646208628</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>苏州巴拉迦家具股份有限公司</v>
+        <v>苏州豪菲爵家具股份有限公司</v>
       </c>
       <c r="B29" t="str">
-        <v>13962138478</v>
+        <v>13812770110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>苏州爱琦森家具股份有限公司</v>
+        <v>江苏美漫庄园家具股份有限公司</v>
       </c>
       <c r="B30" t="str">
-        <v>13862026366</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>常熟市华进建筑加固装饰工程有限公司</v>
+        <v>苏州安铭居家具股份有限公司</v>
       </c>
       <c r="B31" t="str">
-        <v>15850820798</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>苏州杰品龙瑞建筑装饰工程有限公司</v>
+        <v>苏州国文利贸易有限公司</v>
       </c>
       <c r="B32" t="str">
-        <v>13962499087</v>
+        <v>13913634390</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>常熟市卓亿装饰设计有限公司</v>
+        <v>苏州豪美艺鑫家具股份有限公司</v>
       </c>
       <c r="B33" t="str">
-        <v>17751130586</v>
-      </c>
-      <c r="C33" t="str">
-        <v>13306238866</v>
+        <v>18912646831</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>苏州素古源空间设计有限公司</v>
+        <v>苏州龙兴阁家具股份有限公司</v>
       </c>
       <c r="B34" t="str">
-        <v>13083522619</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>苏州美哲艺术软装有限公司</v>
+        <v>江苏正东家居股份有限公司</v>
       </c>
       <c r="B35" t="str">
-        <v>13962355066</v>
+        <v>15850061155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>常熟市协和时尚家居建材成套工程有限公司</v>
+        <v>苏州鑫威利家具股份有限公司</v>
       </c>
       <c r="B36" t="str">
-        <v>13706230777</v>
+        <v>18936147200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>苏州艾居佳家具股份有限公司</v>
+        <v>苏州佐佐木家具股份有限公司</v>
       </c>
       <c r="B37" t="str">
-        <v>13402660810</v>
+        <v>15851405287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>常熟市恒鑫溢装饰工程有限公司</v>
+        <v>苏州连福堂家具股份有限公司</v>
       </c>
       <c r="B38" t="str">
-        <v>13914940369</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>苏州艺墅界装饰设计工程有限公司</v>
+        <v>苏州雪蒂斯家具股份有限公司</v>
       </c>
       <c r="B39" t="str">
-        <v>13073327161</v>
-      </c>
-      <c r="C39" t="str">
-        <v>13913622439</v>
-      </c>
-      <c r="D39" t="str">
-        <v>13962322439</v>
+        <v>15862425016</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>常熟市润华装饰工程有限公司</v>
+        <v>苏州川盛家具股份有限公司</v>
       </c>
       <c r="B40" t="str">
-        <v>13913660300</v>
+        <v>13706203196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>常熟市虞景装饰工程有限公司</v>
+        <v>苏州市顺隆昌家具股份有限公司</v>
       </c>
       <c r="B41" t="str">
-        <v>13773055158</v>
+        <v>13306231418</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>江苏欧诺装饰工程有限公司</v>
+        <v>苏州汉居林家具股份有限公司</v>
       </c>
       <c r="B42" t="str">
-        <v>13915633028</v>
+        <v>13912647294</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>苏州旭诺建筑装饰工程有限公司</v>
+        <v>苏州巴拉迦家具股份有限公司</v>
       </c>
       <c r="B43" t="str">
-        <v>15150394101</v>
+        <v>13962138478</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>常熟艾斯奇建筑装饰工程有限公司</v>
+        <v>苏州爱琦森家具股份有限公司</v>
       </c>
       <c r="B44" t="str">
-        <v>13906233800</v>
-      </c>
-      <c r="C44" t="str">
-        <v>13901577857</v>
+        <v>13862026366</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>常熟市丰城装饰装潢有限公司</v>
+        <v>常熟市华进建筑加固装饰工程有限公司</v>
       </c>
       <c r="B45" t="str">
-        <v>13915605251</v>
-      </c>
-      <c r="C45" t="str">
-        <v>13182626693</v>
+        <v>15850820798</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>常熟市诺远装饰设计有限公司</v>
+        <v>常熟市卓亿装饰设计有限公司</v>
       </c>
       <c r="B46" t="str">
-        <v>18962496039</v>
+        <v>17751130586</v>
+      </c>
+      <c r="C46" t="str">
+        <v>13306238866</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>常熟市康诚智能化系统工程有限公司</v>
+        <v>苏州杰品龙瑞建筑装饰工程有限公司</v>
       </c>
       <c r="B47" t="str">
-        <v>13913678860</v>
+        <v>13962499087</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>苏州博易莱家具股份有限公司</v>
+        <v>苏州素古源空间设计有限公司</v>
       </c>
       <c r="B48" t="str">
-        <v>15995958299</v>
+        <v>13083522619</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>常熟市金富来建筑安装工程有限公司</v>
+        <v>苏州美哲艺术软装有限公司</v>
       </c>
       <c r="B49" t="str">
-        <v>18913678836</v>
-      </c>
-      <c r="C49" t="str">
-        <v>18018178552</v>
+        <v>13962355066</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>苏州卡东斯曼家具股份有限公司</v>
+        <v>常熟市协和时尚家居建材成套工程有限公司</v>
       </c>
       <c r="B50" t="str">
-        <v>18896803832</v>
+        <v>13706230777</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>苏州鸿利源木制品股份有限公司</v>
+        <v>苏州艾居佳家具股份有限公司</v>
       </c>
       <c r="B51" t="str">
-        <v>18915554005</v>
+        <v>13402660810</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>苏州宝晶照明电器有限公司</v>
+        <v>常熟市恒鑫溢装饰工程有限公司</v>
       </c>
       <c r="B52" t="str">
-        <v>13962595080</v>
+        <v>13914940369</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>常熟平辉建筑装饰工程有限公司</v>
+        <v>苏州艺墅界装饰设计工程有限公司</v>
       </c>
       <c r="B53" t="str">
-        <v>13962306639</v>
+        <v>13073327161</v>
+      </c>
+      <c r="C53" t="str">
+        <v>13913622439</v>
+      </c>
+      <c r="D53" t="str">
+        <v>13962322439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>苏州优美格莱家具股份有限公司</v>
+        <v>常熟市润华装饰工程有限公司</v>
       </c>
       <c r="B54" t="str">
-        <v>15995958299</v>
+        <v>13913660300</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>苏州深度印象家具股份有限公司</v>
+        <v>常熟市虞景装饰工程有限公司</v>
       </c>
       <c r="B55" t="str">
-        <v>13962180397</v>
+        <v>13773055158</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>苏州澳米奇家具股份有限公司</v>
+        <v>江苏欧诺装饰工程有限公司</v>
       </c>
       <c r="B56" t="str">
-        <v>13814834048</v>
+        <v>13915633028</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>常熟市古月装饰材料有限公司</v>
+        <v>苏州旭诺建筑装饰工程有限公司</v>
       </c>
       <c r="B57" t="str">
-        <v>13962362016</v>
+        <v>15150394101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>常熟市瑞兴制冷工程有限公司</v>
+        <v>常熟艾斯奇建筑装饰工程有限公司</v>
       </c>
       <c r="B58" t="str">
-        <v>18915508551</v>
+        <v>13906233800</v>
+      </c>
+      <c r="C58" t="str">
+        <v>13901577857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>苏州青华地坪工程有限公司</v>
+        <v>常熟市丰城装饰装潢有限公司</v>
       </c>
       <c r="B59" t="str">
-        <v>15962313921</v>
+        <v>13915605251</v>
       </c>
       <c r="C59" t="str">
-        <v>13914939976</v>
+        <v>13182626693</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>苏州百安特建筑智能化工程有限公司</v>
+        <v>常熟市诺远装饰设计有限公司</v>
       </c>
       <c r="B60" t="str">
-        <v>13896123456</v>
+        <v>18962496039</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>常熟市南祥金属门窗贸易有限公司</v>
+        <v>常熟市康诚智能化系统工程有限公司</v>
       </c>
       <c r="B61" t="str">
-        <v>13962330863</v>
+        <v>13913678860</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>常熟市荣丰建筑节能工程有限公司</v>
+        <v>苏州博易莱家具股份有限公司</v>
       </c>
       <c r="B62" t="str">
-        <v>15335295303</v>
-      </c>
-      <c r="C62" t="str">
-        <v>15962313937</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>常熟市瑞煜工程安装有限公司</v>
+        <v>苏州宝晶照明电器有限公司</v>
       </c>
       <c r="B63" t="str">
-        <v>13962378658</v>
+        <v>13962595080</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>苏州市一庄一宅艺术设计有限公司</v>
+        <v>常熟平辉建筑装饰工程有限公司</v>
       </c>
       <c r="B64" t="str">
-        <v>13814982002</v>
+        <v>13962306639</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>常熟众唐装饰材料有限公司</v>
+        <v>苏州优美格莱家具股份有限公司</v>
       </c>
       <c r="B65" t="str">
-        <v>13814933144</v>
+        <v>15995958299</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>常熟市黑马装饰工程有限公司</v>
+        <v>苏州深度印象家具股份有限公司</v>
       </c>
       <c r="B66" t="str">
-        <v>13290922221</v>
+        <v>13962180397</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>常熟卫国建筑装饰工程有限公司</v>
+        <v>苏州澳米奇家具股份有限公司</v>
       </c>
       <c r="B67" t="str">
-        <v>13862367798</v>
+        <v>13814834048</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>苏州哈迪装饰设计有限公司</v>
+        <v>苏州卡东斯曼家具股份有限公司</v>
       </c>
       <c r="B68" t="str">
-        <v>15995962198</v>
+        <v>18896803832</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>苏州荣达装饰工程有限公司</v>
+        <v>常熟市古月装饰材料有限公司</v>
       </c>
       <c r="B69" t="str">
-        <v>18915526370</v>
+        <v>13962362016</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>苏州燕庭装饰工程有限公司</v>
+        <v>常熟市瑞兴制冷工程有限公司</v>
       </c>
       <c r="B70" t="str">
-        <v>13814582199</v>
+        <v>18915508551</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>常熟市恒硕装饰工程有限公司</v>
+        <v>常熟众唐装饰材料有限公司</v>
       </c>
       <c r="B71" t="str">
-        <v>13862365765</v>
-      </c>
-      <c r="C71" t="str">
-        <v>18915649867</v>
+        <v>13814933144</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>常熟市龙吟装饰有限公司</v>
+        <v>苏州市一庄一宅艺术设计有限公司</v>
       </c>
       <c r="B72" t="str">
-        <v>18021277402</v>
+        <v>13814982002</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>常熟市米粒装饰设计有限公司</v>
+        <v>常熟市瑞煜工程安装有限公司</v>
       </c>
       <c r="B73" t="str">
-        <v>15306238678</v>
+        <v>13962378658</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>雅艺轩装饰碧溪分部</v>
+        <v>常熟市荣丰建筑节能工程有限公司</v>
       </c>
       <c r="B74" t="str">
-        <v>13962318862</v>
+        <v>15335295303</v>
+      </c>
+      <c r="C74" t="str">
+        <v>15962313937</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>常熟市虞鹏装饰装潢有限公司</v>
+        <v>常熟市南祥金属门窗贸易有限公司</v>
       </c>
       <c r="B75" t="str">
-        <v>13773025755</v>
-      </c>
-      <c r="C75" t="str">
-        <v>13915637891</v>
+        <v>13962330863</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>常熟市久润装饰工程有限公司</v>
+        <v>苏州百安特建筑智能化工程有限公司</v>
       </c>
       <c r="B76" t="str">
-        <v>15190555123</v>
-      </c>
-      <c r="C76" t="str">
-        <v>13196627250</v>
+        <v>13896123456</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>常熟水墨江南装饰工程有限公司</v>
+        <v>常熟市金富来建筑安装工程有限公司</v>
       </c>
       <c r="B77" t="str">
-        <v>13405018159</v>
+        <v>18913678836</v>
+      </c>
+      <c r="C77" t="str">
+        <v>18018178552</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>苏州市爱心装饰工程有限公司</v>
+        <v>苏州鸿利源木制品股份有限公司</v>
       </c>
       <c r="B78" t="str">
-        <v>13913691799</v>
+        <v>18915554005</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>常熟市平安装饰工程有限公司</v>
+        <v>苏州青华地坪工程有限公司</v>
       </c>
       <c r="B79" t="str">
-        <v>18915631286</v>
+        <v>15962313921</v>
       </c>
       <c r="C79" t="str">
-        <v>13773026606</v>
+        <v>13914939976</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>苏州志豪装饰工程有限公司</v>
+        <v>雅艺轩装饰碧溪分部</v>
       </c>
       <c r="B80" t="str">
-        <v>13901571209</v>
-      </c>
-      <c r="C80" t="str">
-        <v>13814913160</v>
+        <v>13962318862</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>常熟市朗格装饰有限公司</v>
+        <v>常熟市东易装饰设计工程有限公司</v>
       </c>
       <c r="B81" t="str">
-        <v>15995978447</v>
+        <v>13205122188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>常熟市名强建筑装饰工程有限公司</v>
+        <v>常熟市朗格装饰有限公司</v>
       </c>
       <c r="B82" t="str">
-        <v>15366221545</v>
+        <v>15995978447</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>常熟市嘉诚装饰设计工程有限公司</v>
+        <v>苏州志豪装饰工程有限公司</v>
       </c>
       <c r="B83" t="str">
-        <v>15006235006</v>
+        <v>13901571209</v>
+      </c>
+      <c r="C83" t="str">
+        <v>13814913160</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>常熟金典装饰工程有限公司</v>
+        <v>常熟市平安装饰工程有限公司</v>
       </c>
       <c r="B84" t="str">
-        <v>13915634969</v>
+        <v>18915631286</v>
+      </c>
+      <c r="C84" t="str">
+        <v>13773026606</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>苏州梵特思建筑装饰装潢有限公司</v>
+        <v>苏州市爱心装饰工程有限公司</v>
       </c>
       <c r="B85" t="str">
-        <v>18262120449</v>
+        <v>13913691799</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>常熟市东易装饰设计工程有限公司</v>
+        <v>常熟水墨江南装饰工程有限公司</v>
       </c>
       <c r="B86" t="str">
-        <v>13205122188</v>
+        <v>13405018159</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>鸿鑫装饰</v>
+        <v>常熟市虞鹏装饰装潢有限公司</v>
       </c>
       <c r="B87" t="str">
-        <v>15262538863</v>
+        <v>13773025755</v>
+      </c>
+      <c r="C87" t="str">
+        <v>13915637891</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>安居装饰</v>
+        <v>常熟市久润装饰工程有限公司</v>
       </c>
       <c r="B88" t="str">
-        <v>13962369368</v>
+        <v>15190555123</v>
+      </c>
+      <c r="C88" t="str">
+        <v>13196627250</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>苏州优协装饰工程有限公司</v>
+        <v>苏州梵特思建筑装饰装潢有限公司</v>
       </c>
       <c r="B89" t="str">
-        <v>13915636122</v>
+        <v>18262120449</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>章氏装潢</v>
+        <v>常熟金典装饰工程有限公司</v>
       </c>
       <c r="B90" t="str">
-        <v>13915616729</v>
+        <v>13915634969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>春满人间装饰(李闸路)</v>
+        <v>常熟市恒硕装饰工程有限公司</v>
       </c>
       <c r="B91" t="str">
-        <v>15995937698</v>
+        <v>13862365765</v>
+      </c>
+      <c r="C91" t="str">
+        <v>18915649867</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>盛典装饰</v>
+        <v>苏州燕庭装饰工程有限公司</v>
       </c>
       <c r="B92" t="str">
-        <v>15195265937</v>
-      </c>
-      <c r="C92" t="str">
-        <v>15051774955</v>
+        <v>13814582199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>华磊装饰</v>
+        <v>苏州荣达装饰工程有限公司</v>
       </c>
       <c r="B93" t="str">
-        <v>13222227677</v>
+        <v>18915526370</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>皇品装饰</v>
+        <v>苏州哈迪装饰设计有限公司</v>
       </c>
       <c r="B94" t="str">
-        <v>15895612727</v>
-      </c>
-      <c r="C94" t="str">
-        <v>15962301717</v>
+        <v>15995962198</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>沪沁装潢</v>
+        <v>常熟卫国建筑装饰工程有限公司</v>
       </c>
       <c r="B95" t="str">
-        <v>13661832652</v>
-      </c>
-      <c r="C95" t="str">
-        <v>15212986210</v>
+        <v>13862367798</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>梵天空间设计有限公司</v>
+        <v>常熟市黑马装饰工程有限公司</v>
       </c>
       <c r="B96" t="str">
-        <v>13962343067</v>
+        <v>13290922221</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>亮信装饰</v>
+        <v>常熟市龙吟装饰有限公司</v>
       </c>
       <c r="B97" t="str">
-        <v>18068065856</v>
+        <v>18021277402</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>苏州上工门窗装饰工程</v>
+        <v>常熟市米粒装饰设计有限公司</v>
       </c>
       <c r="B98" t="str">
-        <v>15806131313</v>
+        <v>15306238678</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>润之兴装饰</v>
+        <v>常熟市名强建筑装饰工程有限公司</v>
       </c>
       <c r="B99" t="str">
-        <v>15298836547</v>
+        <v>15366221545</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>龙悦室内装饰</v>
+        <v>常熟市嘉诚装饰设计工程有限公司</v>
       </c>
       <c r="B100" t="str">
-        <v>13773061730</v>
-      </c>
-      <c r="C100" t="str">
-        <v>18914925173</v>
+        <v>15006235006</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>格德装饰</v>
+        <v>章氏装潢</v>
       </c>
       <c r="B101" t="str">
-        <v>13812833734</v>
+        <v>13915616729</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>多邦整体家装</v>
+        <v>苏州优协装饰工程有限公司</v>
       </c>
       <c r="B102" t="str">
-        <v>13962393673</v>
+        <v>13915636122</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>德信装饰吊顶隔墙</v>
+        <v>安居装饰</v>
       </c>
       <c r="B103" t="str">
-        <v>13151625168</v>
+        <v>13962369368</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>艺星设计(花溪店)</v>
+        <v>鸿鑫装饰</v>
       </c>
       <c r="B104" t="str">
-        <v>15370155487</v>
+        <v>15262538863</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>鑫源装饰</v>
+        <v>春满人间装饰(李闸路)</v>
       </c>
       <c r="B105" t="str">
-        <v>18351761252</v>
+        <v>15995937698</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>新建装潢店</v>
+        <v>盛典装饰</v>
       </c>
       <c r="B106" t="str">
-        <v>13962312342</v>
+        <v>15195265937</v>
+      </c>
+      <c r="C106" t="str">
+        <v>15051774955</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>嘉涵设计</v>
+        <v>皇品装饰</v>
       </c>
       <c r="B107" t="str">
-        <v>13917567811</v>
+        <v>15895612727</v>
+      </c>
+      <c r="C107" t="str">
+        <v>15962301717</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>永亮装潢</v>
+        <v>华磊装饰</v>
       </c>
       <c r="B108" t="str">
-        <v>13915664859</v>
+        <v>13222227677</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>世纪装潢店凤铝指定加工点</v>
+        <v>沪沁装潢</v>
       </c>
       <c r="B109" t="str">
-        <v>15895603750</v>
+        <v>13661832652</v>
       </c>
       <c r="C109" t="str">
-        <v>18021631907</v>
+        <v>15212986210</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>唐靖装潢部</v>
+        <v>梵天空间设计有限公司</v>
       </c>
       <c r="B110" t="str">
-        <v>15190176949</v>
-      </c>
-      <c r="C110" t="str">
-        <v>15850306172</v>
+        <v>13962343067</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>雅芝轩装饰</v>
+        <v>亮信装饰</v>
       </c>
       <c r="B111" t="str">
-        <v>13913632938</v>
+        <v>18068065856</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>苏州久权装饰工程有限公司</v>
+        <v>新建装潢店</v>
       </c>
       <c r="B112" t="str">
-        <v>15995972166</v>
-      </c>
-      <c r="C112" t="str">
-        <v>13013829928</v>
+        <v>13962312342</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>创典装饰工程建材批发商行</v>
+        <v>苏州上工门窗装饰工程</v>
       </c>
       <c r="B113" t="str">
-        <v>13616236578</v>
+        <v>15806131313</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>左右装饰</v>
+        <v>润之兴装饰</v>
       </c>
       <c r="B114" t="str">
-        <v>13962308017</v>
+        <v>15298836547</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>鑫隆装饰</v>
+        <v>龙悦室内装饰</v>
       </c>
       <c r="B115" t="str">
-        <v>15850130255</v>
+        <v>13773061730</v>
+      </c>
+      <c r="C115" t="str">
+        <v>18914925173</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>随缘装饰</v>
+        <v>格德装饰</v>
       </c>
       <c r="B116" t="str">
-        <v>13862331576</v>
+        <v>13812833734</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>鼎尚装饰</v>
+        <v>多邦整体家装</v>
       </c>
       <c r="B117" t="str">
-        <v>13770125732</v>
+        <v>13962393673</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>杨和来装饰</v>
+        <v>德信装饰吊顶隔墙</v>
       </c>
       <c r="B118" t="str">
-        <v>13606234127</v>
+        <v>13151625168</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>森林木装饰</v>
+        <v>艺星设计(花溪店)</v>
       </c>
       <c r="B119" t="str">
-        <v>13913633530</v>
+        <v>15370155487</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>金木堂装饰</v>
+        <v>随缘装饰</v>
       </c>
       <c r="B120" t="str">
-        <v>13506231548</v>
+        <v>13862331576</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>艺华家装</v>
+        <v>鑫源装饰</v>
       </c>
       <c r="B121" t="str">
-        <v>13773056758</v>
+        <v>18351761252</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>美居装饰(闽江东路)</v>
+        <v>嘉涵设计</v>
       </c>
       <c r="B122" t="str">
-        <v>18662490800</v>
+        <v>13917567811</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>鑫枫装饰</v>
+        <v>永亮装潢</v>
       </c>
       <c r="B123" t="str">
-        <v>13773042840</v>
-      </c>
-      <c r="C123" t="str">
-        <v>13179622382</v>
+        <v>13915664859</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>超艺装饰工程材料有限公司</v>
+        <v>世纪装潢店凤铝指定加工点</v>
       </c>
       <c r="B124" t="str">
-        <v>18913659727</v>
+        <v>15895603750</v>
+      </c>
+      <c r="C124" t="str">
+        <v>18021631907</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>常熟市恒硕装饰工程有限公司</v>
+        <v>唐靖装潢部</v>
       </c>
       <c r="B125" t="str">
-        <v>13862365765</v>
+        <v>15190176949</v>
+      </c>
+      <c r="C125" t="str">
+        <v>15850306172</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>天艺装饰</v>
+        <v>雅芝轩装饰</v>
       </c>
       <c r="B126" t="str">
-        <v>13913699476</v>
+        <v>13913632938</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>三维一度装饰</v>
+        <v>苏州久权装饰工程有限公司</v>
       </c>
       <c r="B127" t="str">
-        <v>13962382185</v>
+        <v>15995972166</v>
+      </c>
+      <c r="C127" t="str">
+        <v>13013829928</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>同冠·设计</v>
+        <v>创典装饰工程建材批发商行</v>
       </c>
       <c r="B128" t="str">
-        <v>13773040183</v>
+        <v>13616236578</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>大鹏装饰工程有限公司</v>
+        <v>左右装饰</v>
       </c>
       <c r="B129" t="str">
-        <v>18762992717</v>
-      </c>
-      <c r="C129" t="str">
-        <v>18013698988</v>
+        <v>13962308017</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>鑫硕装饰(支塘店)</v>
+        <v>鑫隆装饰</v>
       </c>
       <c r="B130" t="str">
-        <v>13732601218</v>
+        <v>15850130255</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>熙典装饰分部</v>
+        <v>杨和来装饰</v>
       </c>
       <c r="B131" t="str">
-        <v>18915452406</v>
+        <v>13606234127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>常熟市碧溪东恪装潢服务部</v>
+        <v>森林木装饰</v>
       </c>
       <c r="B132" t="str">
-        <v>13962329123</v>
+        <v>13913633530</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>惠敏建筑装饰</v>
+        <v>鼎尚装饰</v>
       </c>
       <c r="B133" t="str">
-        <v>18962303678</v>
+        <v>13770125732</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>缘匠装饰</v>
+        <v>金木堂装饰</v>
       </c>
       <c r="B134" t="str">
-        <v>13913645299</v>
+        <v>13506231548</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>常熟市元和装潢</v>
+        <v>艺华家装</v>
       </c>
       <c r="B135" t="str">
-        <v>13082520088</v>
+        <v>13773056758</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>温州盛业装修</v>
+        <v>美居装饰(闽江东路)</v>
       </c>
       <c r="B136" t="str">
-        <v>13962310863</v>
+        <v>18662490800</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>协和装饰</v>
+        <v>鑫枫装饰</v>
       </c>
       <c r="B137" t="str">
-        <v>18913670497</v>
+        <v>13773042840</v>
+      </c>
+      <c r="C137" t="str">
+        <v>13179622382</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>金尚装饰(李闸路)</v>
+        <v>超艺装饰工程材料有限公司</v>
       </c>
       <c r="B138" t="str">
-        <v>15962391560</v>
+        <v>18913659727</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>家天下装饰(金门路)</v>
+        <v>常熟市恒硕装饰工程有限公司</v>
       </c>
       <c r="B139" t="str">
-        <v>15345128998</v>
-      </c>
-      <c r="C139" t="str">
-        <v>18121573695</v>
+        <v>13862365765</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>王氏装潢</v>
+        <v>天艺装饰</v>
       </c>
       <c r="B140" t="str">
-        <v>13063728398</v>
-      </c>
-      <c r="C140" t="str">
-        <v>13773066813</v>
+        <v>13913699476</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>雅艺轩装饰高端设计中心</v>
+        <v>三维一度装饰</v>
       </c>
       <c r="B141" t="str">
-        <v>13862336277</v>
-      </c>
-      <c r="C141" t="str">
-        <v>13913632938</v>
+        <v>13962382185</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>大墅尚品—由伟壮设计</v>
+        <v>同冠·设计</v>
       </c>
       <c r="B142" t="str">
-        <v>13862324111</v>
+        <v>13773040183</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>金典装饰(枫林路)</v>
+        <v>大鹏装饰工程有限公司</v>
       </c>
       <c r="B143" t="str">
-        <v>18551168893</v>
+        <v>18762992717</v>
       </c>
       <c r="C143" t="str">
-        <v>13913666112</v>
+        <v>18013698988</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
+        <v>鑫硕装饰(支塘店)</v>
+      </c>
+      <c r="B144" t="str">
+        <v>13732601218</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>熙典装饰分部</v>
+      </c>
+      <c r="B145" t="str">
+        <v>18915452406</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>常熟市碧溪东恪装潢服务部</v>
+      </c>
+      <c r="B146" t="str">
+        <v>13962329123</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>惠敏建筑装饰</v>
+      </c>
+      <c r="B147" t="str">
+        <v>18962303678</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>缘匠装饰</v>
+      </c>
+      <c r="B148" t="str">
+        <v>13913645299</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>常熟市元和装潢</v>
+      </c>
+      <c r="B149" t="str">
+        <v>13082520088</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>协和装饰</v>
+      </c>
+      <c r="B150" t="str">
+        <v>18913670497</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>王氏装潢</v>
+      </c>
+      <c r="B151" t="str">
+        <v>13063728398</v>
+      </c>
+      <c r="C151" t="str">
+        <v>13773066813</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>家天下装饰(金门路)</v>
+      </c>
+      <c r="B152" t="str">
+        <v>15345128998</v>
+      </c>
+      <c r="C152" t="str">
+        <v>18121573695</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>金尚装饰(李闸路)</v>
+      </c>
+      <c r="B153" t="str">
+        <v>15962391560</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>温州盛业装修</v>
+      </c>
+      <c r="B154" t="str">
+        <v>13962310863</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>雅艺轩装饰高端设计中心</v>
+      </c>
+      <c r="B155" t="str">
+        <v>13862336277</v>
+      </c>
+      <c r="C155" t="str">
+        <v>13913632938</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>大墅尚品—由伟壮设计</v>
+      </c>
+      <c r="B156" t="str">
+        <v>13862324111</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>金典装饰(枫林路)</v>
+      </c>
+      <c r="B157" t="str">
+        <v>18551168893</v>
+      </c>
+      <c r="C157" t="str">
+        <v>13913666112</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
         <v>一品居装饰设计</v>
       </c>
-      <c r="B144" t="str">
+      <c r="B158" t="str">
         <v>13913537618</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D158"/>
   </ignoredErrors>
 </worksheet>
 </file>